--- a/raw_data/BCH-USD_4h_process.xlsx
+++ b/raw_data/BCH-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>255.3011169433593</v>
+        <v>235.7430877685547</v>
       </c>
       <c r="C2">
-        <v>264.5057067871094</v>
+        <v>236.598388671875</v>
       </c>
       <c r="D2">
-        <v>254.6943054199219</v>
+        <v>232.5078582763672</v>
       </c>
       <c r="E2">
-        <v>264.1095275878906</v>
+        <v>233.2379913330078</v>
       </c>
       <c r="F2">
-        <v>46878912</v>
+        <v>8186496</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>264.10595703125</v>
+        <v>233.2548522949219</v>
       </c>
       <c r="C3">
-        <v>266.5967102050781</v>
+        <v>234.9354553222656</v>
       </c>
       <c r="D3">
-        <v>258.1340026855469</v>
+        <v>233.07080078125</v>
       </c>
       <c r="E3">
-        <v>262.1806640625</v>
+        <v>233.955795288086</v>
       </c>
       <c r="F3">
-        <v>73980288</v>
+        <v>3692640</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>262.2129211425781</v>
+        <v>233.9729614257812</v>
       </c>
       <c r="C4">
-        <v>276.7077941894531</v>
+        <v>237.974365234375</v>
       </c>
       <c r="D4">
-        <v>262.2129211425781</v>
+        <v>233.666244506836</v>
       </c>
       <c r="E4">
-        <v>272.8052368164062</v>
+        <v>236.3195190429688</v>
       </c>
       <c r="F4">
-        <v>138319744</v>
+        <v>11452800</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>272.7962951660156</v>
+        <v>236.3123931884766</v>
       </c>
       <c r="C5">
-        <v>276.2957458496094</v>
+        <v>237.7219543457031</v>
       </c>
       <c r="D5">
-        <v>268.2594299316406</v>
+        <v>235.4526214599609</v>
       </c>
       <c r="E5">
-        <v>272.9693603515625</v>
+        <v>235.4526214599609</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2992064</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>272.9283142089844</v>
+        <v>235.4158325195312</v>
       </c>
       <c r="C6">
-        <v>274.010986328125</v>
+        <v>236.1753387451172</v>
       </c>
       <c r="D6">
-        <v>265.8278198242188</v>
+        <v>233.780990600586</v>
       </c>
       <c r="E6">
-        <v>271.7381591796875</v>
+        <v>235.7704010009766</v>
       </c>
       <c r="F6">
-        <v>51913152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>271.72265625</v>
+        <v>235.7671203613281</v>
       </c>
       <c r="C7">
-        <v>272.7229309082031</v>
+        <v>239.197982788086</v>
       </c>
       <c r="D7">
-        <v>264.6962280273437</v>
+        <v>235.121826171875</v>
       </c>
       <c r="E7">
-        <v>266.576171875</v>
+        <v>238.8418731689453</v>
       </c>
       <c r="F7">
-        <v>995456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>266.5503845214844</v>
+        <v>238.8641357421875</v>
       </c>
       <c r="C8">
-        <v>266.5503845214844</v>
+        <v>238.9464416503907</v>
       </c>
       <c r="D8">
-        <v>259.0162963867188</v>
+        <v>236.4278564453125</v>
       </c>
       <c r="E8">
-        <v>262.4729614257812</v>
+        <v>237.0874633789062</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>378432</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>262.4530029296875</v>
+        <v>237.0823059082031</v>
       </c>
       <c r="C9">
-        <v>268.0469360351562</v>
+        <v>240.0231170654297</v>
       </c>
       <c r="D9">
-        <v>254.0523071289062</v>
+        <v>237.0823059082031</v>
       </c>
       <c r="E9">
-        <v>257.2901916503906</v>
+        <v>239.5625</v>
       </c>
       <c r="F9">
-        <v>18762624</v>
+        <v>5775328</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>257.285400390625</v>
+        <v>239.5657501220703</v>
       </c>
       <c r="C10">
-        <v>258.5368347167969</v>
+        <v>239.8292846679688</v>
       </c>
       <c r="D10">
-        <v>251.9693908691407</v>
+        <v>233.2189331054688</v>
       </c>
       <c r="E10">
-        <v>251.9693908691407</v>
+        <v>235.362533569336</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9135696</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>252.0213928222656</v>
+        <v>235.3665008544922</v>
       </c>
       <c r="C11">
-        <v>256.9549255371094</v>
+        <v>236.3717651367188</v>
       </c>
       <c r="D11">
-        <v>252.0213928222656</v>
+        <v>234.2631530761719</v>
       </c>
       <c r="E11">
-        <v>255.9795837402344</v>
+        <v>234.4050598144531</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4062336</v>
       </c>
       <c r="L11">
-        <v>34.84009684055805</v>
+        <v>45.79652877853972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>255.9826202392578</v>
+        <v>234.4012451171875</v>
       </c>
       <c r="C12">
-        <v>268.8082580566406</v>
+        <v>236.3126220703125</v>
       </c>
       <c r="D12">
-        <v>255.8088073730469</v>
+        <v>232.4662017822266</v>
       </c>
       <c r="E12">
-        <v>262.7877502441406</v>
+        <v>232.4712677001953</v>
       </c>
       <c r="F12">
-        <v>16808224</v>
+        <v>4391104</v>
       </c>
       <c r="L12">
-        <v>50.06830707278738</v>
+        <v>38.62453421561256</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>262.7998657226562</v>
+        <v>232.4847564697266</v>
       </c>
       <c r="C13">
-        <v>263.4316711425781</v>
+        <v>234.8964233398437</v>
       </c>
       <c r="D13">
-        <v>253.5838317871093</v>
+        <v>231.3397521972656</v>
       </c>
       <c r="E13">
-        <v>258.1898498535156</v>
+        <v>232.6389312744141</v>
       </c>
       <c r="F13">
-        <v>15876672</v>
+        <v>2969792</v>
       </c>
       <c r="L13">
-        <v>42.51861179911386</v>
+        <v>39.54795541809286</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>258.1914978027344</v>
+        <v>233.0939178466797</v>
       </c>
       <c r="C14">
-        <v>258.1914978027344</v>
+        <v>235.5892639160156</v>
       </c>
       <c r="D14">
-        <v>251.2141876220703</v>
+        <v>231.6147918701172</v>
       </c>
       <c r="E14">
-        <v>254.4994049072266</v>
+        <v>235.3960418701172</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>7092800</v>
       </c>
       <c r="L14">
-        <v>37.42320162447471</v>
+        <v>52.71045015525167</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>254.4979095458984</v>
+        <v>235.4014434814453</v>
       </c>
       <c r="C15">
-        <v>262.488525390625</v>
+        <v>240.8262939453125</v>
       </c>
       <c r="D15">
-        <v>254.3949584960937</v>
+        <v>234.5466003417969</v>
       </c>
       <c r="E15">
-        <v>255.3016357421875</v>
+        <v>239.5813751220703</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>18731136</v>
       </c>
       <c r="L15">
-        <v>39.20493032598624</v>
+        <v>65.52836706982254</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,3373 +1309,3358 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>255.2756500244141</v>
+        <v>239.5755157470703</v>
       </c>
       <c r="C16">
-        <v>286.2322387695312</v>
+        <v>242.7883605957031</v>
       </c>
       <c r="D16">
-        <v>255.0830383300781</v>
+        <v>238.8289642333984</v>
       </c>
       <c r="E16">
-        <v>284.5611877441406</v>
+        <v>242.7294464111328</v>
       </c>
       <c r="F16">
-        <v>235228864</v>
+        <v>15550848</v>
       </c>
       <c r="L16">
-        <v>71.96168927573886</v>
+        <v>71.95971171941299</v>
       </c>
       <c r="M16">
-        <v>68.322731059587</v>
+        <v>69.48652505135628</v>
       </c>
       <c r="O16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>284.5587158203125</v>
+        <v>242.7107696533203</v>
       </c>
       <c r="C17">
-        <v>284.5587158203125</v>
+        <v>242.7107696533203</v>
       </c>
       <c r="D17">
-        <v>273.1461181640625</v>
+        <v>232.0385284423828</v>
       </c>
       <c r="E17">
-        <v>278.7743835449219</v>
+        <v>234.9830017089844</v>
       </c>
       <c r="F17">
-        <v>82426432</v>
+        <v>20088736</v>
       </c>
       <c r="L17">
-        <v>64.25824314485672</v>
+        <v>47.45192279943809</v>
       </c>
       <c r="M17">
-        <v>62.07086370268117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>49.13211389072301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>278.7668762207031</v>
+        <v>234.9990997314453</v>
       </c>
       <c r="C18">
-        <v>278.7668762207031</v>
+        <v>236.7008666992188</v>
       </c>
       <c r="D18">
-        <v>273.2064514160156</v>
+        <v>234.7201690673828</v>
       </c>
       <c r="E18">
-        <v>277.7353210449219</v>
+        <v>235.8036499023437</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>177088</v>
       </c>
       <c r="L18">
-        <v>62.89812447602641</v>
+        <v>49.50166340363286</v>
       </c>
       <c r="M18">
-        <v>60.99166212224736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>50.77710801737968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>277.7462463378906</v>
+        <v>235.8082275390625</v>
       </c>
       <c r="C19">
-        <v>279.4746704101562</v>
+        <v>236.4602203369141</v>
       </c>
       <c r="D19">
-        <v>273.3428955078125</v>
+        <v>234.95458984375</v>
       </c>
       <c r="E19">
-        <v>273.3428955078125</v>
+        <v>236.1561584472656</v>
       </c>
       <c r="F19">
-        <v>263616</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>57.14575000640542</v>
+        <v>50.43593711319287</v>
       </c>
       <c r="M19">
-        <v>56.51813546094512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>51.50260627861865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>273.355712890625</v>
+        <v>236.1543884277344</v>
       </c>
       <c r="C20">
-        <v>273.4060668945312</v>
+        <v>237.5284271240234</v>
       </c>
       <c r="D20">
-        <v>270.6611328125</v>
+        <v>235.7998657226562</v>
       </c>
       <c r="E20">
-        <v>271.1579895019531</v>
+        <v>237.5284271240234</v>
       </c>
       <c r="F20">
-        <v>2484992</v>
+        <v>261776</v>
       </c>
       <c r="L20">
-        <v>54.36349034073125</v>
+        <v>54.15086371701019</v>
       </c>
       <c r="M20">
-        <v>54.38143682266534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>54.32490447902948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>271.0721740722656</v>
+        <v>237.5265502929688</v>
       </c>
       <c r="C21">
-        <v>271.7076416015625</v>
+        <v>237.8916320800781</v>
       </c>
       <c r="D21">
-        <v>262.5413513183594</v>
+        <v>234.9549865722656</v>
       </c>
       <c r="E21">
-        <v>264.1045837402344</v>
+        <v>235.8813018798828</v>
       </c>
       <c r="F21">
-        <v>20185344</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>265.9273124694824</v>
+        <v>236.1582679748535</v>
       </c>
       <c r="L21">
-        <v>46.19523131656408</v>
+        <v>49.17396750780473</v>
       </c>
       <c r="M21">
-        <v>48.06418971037192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>50.52426512752364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>264.1473693847656</v>
+        <v>236.0846252441407</v>
       </c>
       <c r="C22">
-        <v>266.8992919921875</v>
+        <v>237.8149108886719</v>
       </c>
       <c r="D22">
-        <v>263.6348266601562</v>
+        <v>235.8846435546875</v>
       </c>
       <c r="E22">
-        <v>266.8250732421875</v>
+        <v>236.0610046386719</v>
       </c>
       <c r="F22">
-        <v>5860416</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>265.9700629824684</v>
+        <v>236.1536363874163</v>
       </c>
       <c r="H22">
-        <v>266.0630897521972</v>
+        <v>236.2994186401367</v>
       </c>
       <c r="L22">
-        <v>49.48840018562235</v>
+        <v>49.74092220111223</v>
       </c>
       <c r="M22">
-        <v>50.45481501047811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>50.92763870786215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>266.839111328125</v>
+        <v>236.0489807128907</v>
       </c>
       <c r="C23">
-        <v>270.4507446289062</v>
+        <v>237.5567779541016</v>
       </c>
       <c r="D23">
-        <v>265.4314575195312</v>
+        <v>236.0256042480469</v>
       </c>
       <c r="E23">
-        <v>265.4415283203125</v>
+        <v>237.5567779541016</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>265.9220143768179</v>
+        <v>236.2811947116604</v>
       </c>
       <c r="H23">
-        <v>266.2261329650879</v>
+        <v>236.4794677734375</v>
       </c>
       <c r="L23">
-        <v>47.81404552203922</v>
+        <v>54.49419267810209</v>
       </c>
       <c r="M23">
-        <v>49.21411949435838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>54.26970399051936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>265.4366149902344</v>
+        <v>237.6129608154297</v>
       </c>
       <c r="C24">
-        <v>267.0854797363281</v>
+        <v>239.5404357910156</v>
       </c>
       <c r="D24">
-        <v>262.8202514648437</v>
+        <v>235.7676086425781</v>
       </c>
       <c r="E24">
-        <v>263.5529479980469</v>
+        <v>236.1018371582031</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>6048480</v>
       </c>
       <c r="G24">
-        <v>265.7066447060205</v>
+        <v>236.2648894795279</v>
       </c>
       <c r="H24">
-        <v>265.7635185241699</v>
+        <v>236.4685836791992</v>
       </c>
       <c r="L24">
-        <v>45.4524988963696</v>
+        <v>49.38337015524283</v>
       </c>
       <c r="M24">
-        <v>47.49717119282932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>50.65584066527222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>263.5578918457031</v>
+        <v>236.1057281494141</v>
       </c>
       <c r="C25">
-        <v>264.4568481445312</v>
+        <v>239.556655883789</v>
       </c>
       <c r="D25">
-        <v>261.9911193847656</v>
+        <v>235.6111145019531</v>
       </c>
       <c r="E25">
-        <v>261.9911193847656</v>
+        <v>237.1225128173828</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>9953440</v>
       </c>
       <c r="G25">
-        <v>265.3688696768155</v>
+        <v>236.3428552375147</v>
       </c>
       <c r="H25">
-        <v>265.2146064758301</v>
+        <v>236.5520782470703</v>
       </c>
       <c r="L25">
-        <v>43.45568288640867</v>
+        <v>52.87169825462865</v>
       </c>
       <c r="M25">
-        <v>46.06587530101877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>53.01936601115224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>262.0205993652344</v>
+        <v>237.1353302001953</v>
       </c>
       <c r="C26">
-        <v>262.5318908691406</v>
+        <v>237.8898010253907</v>
       </c>
       <c r="D26">
-        <v>256.4693908691406</v>
+        <v>234.3559875488281</v>
       </c>
       <c r="E26">
-        <v>259.2362976074219</v>
+        <v>236.5460968017578</v>
       </c>
       <c r="F26">
-        <v>1355008</v>
+        <v>6366768</v>
       </c>
       <c r="G26">
-        <v>264.8113631250524</v>
+        <v>236.361331743355</v>
       </c>
       <c r="H26">
-        <v>264.5895133972168</v>
+        <v>236.5908630371094</v>
       </c>
       <c r="L26">
-        <v>39.97118678332947</v>
+        <v>50.65382291485167</v>
       </c>
       <c r="M26">
-        <v>43.57178676994937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>51.51857131921606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>259.2650756835937</v>
+        <v>236.5594482421875</v>
       </c>
       <c r="C27">
-        <v>262.1793212890625</v>
+        <v>236.8759613037109</v>
       </c>
       <c r="D27">
-        <v>258.1852416992188</v>
+        <v>230.7432250976562</v>
       </c>
       <c r="E27">
-        <v>258.2946472167969</v>
+        <v>232.1602783203125</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>9882384</v>
       </c>
       <c r="G27">
-        <v>264.2189344061201</v>
+        <v>235.9794177958057</v>
       </c>
       <c r="H27">
-        <v>264.1754371643066</v>
+        <v>236.2567832946777</v>
       </c>
       <c r="L27">
-        <v>38.77554783909596</v>
+        <v>37.27090199529964</v>
       </c>
       <c r="M27">
-        <v>42.72035806363727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>41.81887028274141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>258.3286743164062</v>
+        <v>232.191650390625</v>
       </c>
       <c r="C28">
-        <v>268.5260925292969</v>
+        <v>233.2059478759766</v>
       </c>
       <c r="D28">
-        <v>256.3830871582031</v>
+        <v>223.1665954589844</v>
       </c>
       <c r="E28">
-        <v>266.2106018066406</v>
+        <v>227.8366088867188</v>
       </c>
       <c r="F28">
-        <v>33038848</v>
+        <v>28743488</v>
       </c>
       <c r="G28">
-        <v>264.3999950788947</v>
+        <v>235.2391624404341</v>
       </c>
       <c r="H28">
-        <v>264.3623191833496</v>
+        <v>235.7942405700684</v>
       </c>
       <c r="L28">
-        <v>52.27618556015432</v>
+        <v>28.82475462800059</v>
       </c>
       <c r="M28">
-        <v>51.33029414047251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>34.85238728275419</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>266.1822814941406</v>
+        <v>227.8403778076172</v>
       </c>
       <c r="C29">
-        <v>266.1822814941406</v>
+        <v>239.8489227294922</v>
       </c>
       <c r="D29">
-        <v>262.8677062988281</v>
+        <v>227.0924682617188</v>
       </c>
       <c r="E29">
-        <v>264.0607299804688</v>
+        <v>235.4519195556641</v>
       </c>
       <c r="F29">
-        <v>6524096</v>
+        <v>56886496</v>
       </c>
       <c r="G29">
-        <v>264.3691527972196</v>
+        <v>235.2585039963641</v>
       </c>
       <c r="H29">
-        <v>264.7008460998535</v>
+        <v>235.5887115478516</v>
       </c>
       <c r="L29">
-        <v>48.97645471287009</v>
+        <v>50.88080192414748</v>
       </c>
       <c r="M29">
-        <v>49.16866108779742</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>50.49502416991159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>264.0519409179688</v>
+        <v>235.4641571044922</v>
       </c>
       <c r="C30">
-        <v>266.1562194824219</v>
+        <v>238.0480499267578</v>
       </c>
       <c r="D30">
-        <v>262.6302490234375</v>
+        <v>234.8595123291016</v>
       </c>
       <c r="E30">
-        <v>264.1845703125</v>
+        <v>237.7407989501953</v>
       </c>
       <c r="F30">
-        <v>1308096</v>
+        <v>7218528</v>
       </c>
       <c r="G30">
-        <v>264.352372571336</v>
+        <v>235.4841671739851</v>
       </c>
       <c r="H30">
-        <v>265.3116050720215</v>
+        <v>235.7076248168945</v>
       </c>
       <c r="L30">
-        <v>49.18431640575272</v>
+        <v>55.53946402781548</v>
       </c>
       <c r="M30">
-        <v>49.30110771787034</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>54.06507528840388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>264.19677734375</v>
+        <v>237.8246002197266</v>
       </c>
       <c r="C31">
-        <v>267.0384521484375</v>
+        <v>240.2440490722656</v>
       </c>
       <c r="D31">
-        <v>262.4554138183594</v>
+        <v>237.4188690185547</v>
       </c>
       <c r="E31">
-        <v>266.7009887695312</v>
+        <v>239.012710571289</v>
       </c>
       <c r="F31">
-        <v>3233440</v>
+        <v>24041792</v>
       </c>
       <c r="G31">
-        <v>264.5658831348082</v>
+        <v>235.8049438464673</v>
       </c>
       <c r="H31">
-        <v>265.8476753234863</v>
+        <v>235.9380073547363</v>
       </c>
       <c r="I31">
-        <v>265.1681584676107</v>
+        <v>235.9585301717122</v>
       </c>
       <c r="L31">
-        <v>53.51348130728915</v>
+        <v>58.02806617675979</v>
       </c>
       <c r="M31">
-        <v>52.03594024351737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>55.96544417387631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>266.7159423828125</v>
+        <v>239.1191711425781</v>
       </c>
       <c r="C32">
-        <v>267.2081909179688</v>
+        <v>246.6708374023437</v>
       </c>
       <c r="D32">
-        <v>264.7151184082031</v>
+        <v>238.7726593017578</v>
       </c>
       <c r="E32">
-        <v>266.4817199707031</v>
+        <v>245.8786315917969</v>
       </c>
       <c r="F32">
-        <v>2288512</v>
+        <v>26614208</v>
       </c>
       <c r="G32">
-        <v>264.7400501198896</v>
+        <v>236.7207336414972</v>
       </c>
       <c r="H32">
-        <v>266.0323738098144</v>
+        <v>236.6083755493164</v>
       </c>
       <c r="I32">
-        <v>265.2472315470378</v>
+        <v>236.3798848470052</v>
       </c>
       <c r="L32">
-        <v>53.07027676061303</v>
+        <v>68.67576286943809</v>
       </c>
       <c r="M32">
-        <v>51.77386769360044</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>64.50267589693958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>266.6797790527344</v>
+        <v>245.8677368164062</v>
       </c>
       <c r="C33">
-        <v>270.4891967773437</v>
+        <v>255.4924011230469</v>
       </c>
       <c r="D33">
-        <v>265.8841552734375</v>
+        <v>244.5941619873047</v>
       </c>
       <c r="E33">
-        <v>266.7579650878906</v>
+        <v>253.9034423828125</v>
       </c>
       <c r="F33">
-        <v>32633280</v>
+        <v>44736320</v>
       </c>
       <c r="G33">
-        <v>264.9234969351624</v>
+        <v>238.2827980725259</v>
       </c>
       <c r="H33">
-        <v>266.4607795715332</v>
+        <v>237.6716011047363</v>
       </c>
       <c r="I33">
-        <v>265.3998082478841</v>
+        <v>237.0448064168294</v>
       </c>
       <c r="L33">
-        <v>53.61476816605811</v>
+        <v>76.51096747214969</v>
       </c>
       <c r="M33">
-        <v>52.10116732314363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>71.46587341356681</v>
+      </c>
+      <c r="O33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>266.7550659179688</v>
+        <v>253.9297485351562</v>
       </c>
       <c r="C34">
-        <v>268.4251708984375</v>
+        <v>256.5728759765625</v>
       </c>
       <c r="D34">
-        <v>266.3969421386719</v>
+        <v>247.645751953125</v>
       </c>
       <c r="E34">
-        <v>267.3230590820312</v>
+        <v>248.6466369628907</v>
       </c>
       <c r="F34">
-        <v>9504320</v>
+        <v>20680896</v>
       </c>
       <c r="G34">
-        <v>265.1416389485141</v>
+        <v>239.2249652443772</v>
       </c>
       <c r="H34">
-        <v>267.1019622802734</v>
+        <v>238.334130859375</v>
       </c>
       <c r="I34">
-        <v>265.2170689900716</v>
+        <v>237.4557103474935</v>
       </c>
       <c r="L34">
-        <v>54.82107430876088</v>
+        <v>64.60243258465489</v>
       </c>
       <c r="M34">
-        <v>52.80675931931554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>62.77837123659418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>267.277587890625</v>
+        <v>248.6429138183593</v>
       </c>
       <c r="C35">
-        <v>269.1014709472656</v>
+        <v>249.8603820800781</v>
       </c>
       <c r="D35">
-        <v>262.8189392089844</v>
+        <v>247.8687133789062</v>
       </c>
       <c r="E35">
-        <v>263.216796875</v>
+        <v>249.8603820800781</v>
       </c>
       <c r="F35">
-        <v>6570560</v>
+        <v>1151488</v>
       </c>
       <c r="G35">
-        <v>264.9666533054674</v>
+        <v>240.19182132035</v>
       </c>
       <c r="H35">
-        <v>267.4977203369141</v>
+        <v>238.8480812072754</v>
       </c>
       <c r="I35">
-        <v>264.8919835408529</v>
+        <v>237.9359690348307</v>
       </c>
       <c r="L35">
-        <v>45.20965526936731</v>
+        <v>65.9779108560308</v>
       </c>
       <c r="M35">
-        <v>47.34859639304025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>63.87043801160706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>263.2101745605469</v>
+        <v>249.8882598876953</v>
       </c>
       <c r="C36">
-        <v>263.9123229980469</v>
+        <v>251.2814025878907</v>
       </c>
       <c r="D36">
-        <v>258.0948181152344</v>
+        <v>246.5695037841797</v>
       </c>
       <c r="E36">
-        <v>258.5968933105469</v>
+        <v>250.4122619628907</v>
       </c>
       <c r="F36">
-        <v>15035872</v>
+        <v>2798400</v>
       </c>
       <c r="G36">
-        <v>264.3875842150201</v>
+        <v>241.1209522878537</v>
       </c>
       <c r="H36">
-        <v>266.1995056152344</v>
+        <v>239.2322219848633</v>
       </c>
       <c r="I36">
-        <v>264.4539413452148</v>
+        <v>238.4240310668945</v>
       </c>
       <c r="L36">
-        <v>36.99914090975117</v>
+        <v>66.64098654498176</v>
       </c>
       <c r="M36">
-        <v>42.0788279847789</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>64.38214730621097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>258.4692687988281</v>
+        <v>250.5455322265625</v>
       </c>
       <c r="C37">
-        <v>258.9359130859375</v>
+        <v>252.255111694336</v>
       </c>
       <c r="D37">
-        <v>256.7604675292969</v>
+        <v>245.2501831054688</v>
       </c>
       <c r="E37">
-        <v>257.601318359375</v>
+        <v>248.284194946289</v>
       </c>
       <c r="F37">
-        <v>9300544</v>
+        <v>20707136</v>
       </c>
       <c r="G37">
-        <v>263.7706509554159</v>
+        <v>241.7721561658933</v>
       </c>
       <c r="H37">
-        <v>265.140852355957</v>
+        <v>239.8972816467285</v>
       </c>
       <c r="I37">
-        <v>264.1547795613607</v>
+        <v>238.7387751261393</v>
       </c>
       <c r="L37">
-        <v>35.43882665115343</v>
+        <v>61.44594952843537</v>
       </c>
       <c r="M37">
-        <v>41.01933337205074</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>60.80586728296812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>257.602783203125</v>
+        <v>248.3184509277344</v>
       </c>
       <c r="C38">
-        <v>258.5881042480469</v>
+        <v>249.9038391113281</v>
       </c>
       <c r="D38">
-        <v>255.3893280029297</v>
+        <v>245.5998992919922</v>
       </c>
       <c r="E38">
-        <v>256.958740234375</v>
+        <v>246.370132446289</v>
       </c>
       <c r="F38">
-        <v>3924416</v>
+        <v>2406336</v>
       </c>
       <c r="G38">
-        <v>263.1513863444122</v>
+        <v>242.1901540095656</v>
       </c>
       <c r="H38">
-        <v>264.1020233154297</v>
+        <v>240.4256057739258</v>
       </c>
       <c r="I38">
-        <v>263.9709721883138</v>
+        <v>239.0481974283854</v>
       </c>
       <c r="L38">
-        <v>34.38588303270333</v>
+        <v>56.95342543444666</v>
       </c>
       <c r="M38">
-        <v>40.31378730207453</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>57.70125876703335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>256.98046875</v>
+        <v>246.358139038086</v>
       </c>
       <c r="C39">
-        <v>259.1679992675781</v>
+        <v>250.5909423828125</v>
       </c>
       <c r="D39">
-        <v>256.5263671875</v>
+        <v>240.5681915283203</v>
       </c>
       <c r="E39">
-        <v>258.4261779785156</v>
+        <v>245.1793975830078</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>38878144</v>
       </c>
       <c r="G39">
-        <v>262.7218219475125</v>
+        <v>242.4619034253331</v>
       </c>
       <c r="H39">
-        <v>263.3561874389649</v>
+        <v>240.8767677307129</v>
       </c>
       <c r="I39">
-        <v>264.0088383992513</v>
+        <v>239.235427347819</v>
       </c>
       <c r="L39">
-        <v>39.03920074603541</v>
+        <v>54.18102566263924</v>
       </c>
       <c r="M39">
-        <v>42.73613172034257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>55.7927984224215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>258.4307250976562</v>
+        <v>245.1351318359375</v>
       </c>
       <c r="C40">
-        <v>266.4560241699219</v>
+        <v>247.2178955078125</v>
       </c>
       <c r="D40">
-        <v>258.4307250976562</v>
+        <v>244.4114990234375</v>
       </c>
       <c r="E40">
-        <v>261.7771301269531</v>
+        <v>245.9498443603516</v>
       </c>
       <c r="F40">
-        <v>26813072</v>
+        <v>1699744</v>
       </c>
       <c r="G40">
-        <v>262.6359408729161</v>
+        <v>242.7789889648802</v>
       </c>
       <c r="H40">
-        <v>262.8871444702148</v>
+        <v>241.2978385925293</v>
       </c>
       <c r="I40">
-        <v>264.3357630411784</v>
+        <v>239.5883377075195</v>
       </c>
       <c r="L40">
-        <v>48.43404428445532</v>
+        <v>55.74900083619295</v>
       </c>
       <c r="M40">
-        <v>47.9327382336871</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>56.78867987491288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>261.72607421875</v>
+        <v>245.9710693359375</v>
       </c>
       <c r="C41">
-        <v>264.1680908203125</v>
+        <v>246.1662902832031</v>
       </c>
       <c r="D41">
-        <v>250.6763763427734</v>
+        <v>242.6969604492188</v>
       </c>
       <c r="E41">
-        <v>250.7823944091797</v>
+        <v>243.105224609375</v>
       </c>
       <c r="F41">
-        <v>22200112</v>
+        <v>3010784</v>
       </c>
       <c r="G41">
-        <v>261.5583457398492</v>
+        <v>242.8086467507433</v>
       </c>
       <c r="H41">
-        <v>262.2210350036621</v>
+        <v>241.6590347290039</v>
       </c>
       <c r="I41">
-        <v>264.1625233968099</v>
+        <v>239.8783432006836</v>
       </c>
       <c r="L41">
-        <v>30.87205959482769</v>
+        <v>48.81084226723868</v>
       </c>
       <c r="M41">
-        <v>36.2946221937819</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>52.12008689304344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>250.7632446289062</v>
+        <v>243.1141357421875</v>
       </c>
       <c r="C42">
-        <v>250.7632446289062</v>
+        <v>244.9710388183593</v>
       </c>
       <c r="D42">
-        <v>224.3374633789062</v>
+        <v>240.9787139892578</v>
       </c>
       <c r="E42">
-        <v>235.6568756103516</v>
+        <v>241.5365295410156</v>
       </c>
       <c r="F42">
-        <v>118157984</v>
+        <v>3175264</v>
       </c>
       <c r="G42">
-        <v>259.2036666371675</v>
+        <v>242.6929997316772</v>
       </c>
       <c r="H42">
-        <v>260.6626251220703</v>
+        <v>241.9328109741211</v>
       </c>
       <c r="I42">
-        <v>263.2581609090169</v>
+        <v>240.1805185953776</v>
       </c>
       <c r="L42">
-        <v>19.7748454762447</v>
+        <v>45.31227795749905</v>
       </c>
       <c r="M42">
-        <v>26.69278235666718</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>49.6938890130045</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>235.7430877685547</v>
+        <v>241.581771850586</v>
       </c>
       <c r="C43">
-        <v>236.598388671875</v>
+        <v>241.8228912353516</v>
       </c>
       <c r="D43">
-        <v>232.5078582763672</v>
+        <v>235.0027770996093</v>
       </c>
       <c r="E43">
-        <v>233.2379913330078</v>
+        <v>239.7894287109375</v>
       </c>
       <c r="F43">
-        <v>9716000</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>256.8431507004257</v>
+        <v>242.4290387297917</v>
       </c>
       <c r="H43">
-        <v>259.0524482727051</v>
+        <v>242.0444435119629</v>
       </c>
       <c r="I43">
-        <v>262.4264322916667</v>
+        <v>240.4188685099284</v>
       </c>
       <c r="L43">
-        <v>18.57367788566566</v>
+        <v>41.57829605927698</v>
       </c>
       <c r="M43">
-        <v>25.52960543842657</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>47.06608320450474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>233.2548522949219</v>
+        <v>240.6117706298828</v>
       </c>
       <c r="C44">
-        <v>234.9354553222656</v>
+        <v>248.2424621582031</v>
       </c>
       <c r="D44">
-        <v>233.07080078125</v>
+        <v>239.7074890136719</v>
       </c>
       <c r="E44">
-        <v>233.955795288086</v>
+        <v>247.6180877685547</v>
       </c>
       <c r="F44">
-        <v>3692640</v>
+        <v>9518784</v>
       </c>
       <c r="G44">
-        <v>254.7624820265767</v>
+        <v>242.9007704605883</v>
       </c>
       <c r="H44">
-        <v>257.572590637207</v>
+        <v>242.6202560424805</v>
       </c>
       <c r="I44">
-        <v>261.741645304362</v>
+        <v>240.8262700398763</v>
       </c>
       <c r="L44">
-        <v>20.19205567470389</v>
+        <v>58.72457259119773</v>
       </c>
       <c r="M44">
-        <v>26.55243848354885</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>57.82758430284751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>233.9729614257812</v>
+        <v>247.6348419189453</v>
       </c>
       <c r="C45">
-        <v>237.974365234375</v>
+        <v>259.7375793457031</v>
       </c>
       <c r="D45">
-        <v>233.666244506836</v>
+        <v>243.6446380615234</v>
       </c>
       <c r="E45">
-        <v>236.3195190429688</v>
+        <v>254.2445678710937</v>
       </c>
       <c r="F45">
-        <v>11452800</v>
+        <v>41655360</v>
       </c>
       <c r="G45">
-        <v>253.0858490280668</v>
+        <v>243.9320247706343</v>
       </c>
       <c r="H45">
-        <v>256.2890106201172</v>
+        <v>243.476358795166</v>
       </c>
       <c r="I45">
-        <v>261.1089080810547</v>
+        <v>241.3150431315104</v>
       </c>
       <c r="L45">
-        <v>25.665361549126</v>
+        <v>67.74035187337037</v>
       </c>
       <c r="M45">
-        <v>29.96373618669522</v>
-      </c>
-      <c r="N45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>64.42102953062724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>236.3123931884766</v>
+        <v>254.2969055175781</v>
       </c>
       <c r="C46">
-        <v>237.7219543457031</v>
+        <v>258.559814453125</v>
       </c>
       <c r="D46">
-        <v>235.4526214599609</v>
+        <v>252.4664306640625</v>
       </c>
       <c r="E46">
-        <v>235.4526214599609</v>
+        <v>257.3064880371094</v>
       </c>
       <c r="F46">
-        <v>2992064</v>
+        <v>29868768</v>
       </c>
       <c r="G46">
-        <v>251.4828283400572</v>
+        <v>245.1478850675866</v>
       </c>
       <c r="H46">
-        <v>255.0998268127441</v>
+        <v>244.5143783569336</v>
       </c>
       <c r="I46">
-        <v>259.4719558715821</v>
+        <v>241.800944519043</v>
       </c>
       <c r="L46">
-        <v>24.95911494807104</v>
+        <v>71.02982469487353</v>
       </c>
       <c r="M46">
-        <v>29.42397782314078</v>
-      </c>
-      <c r="N46" t="s">
+        <v>66.9892645987286</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>235.4158325195312</v>
+        <v>257.4780883789062</v>
       </c>
       <c r="C47">
-        <v>236.1753387451172</v>
+        <v>258.2710876464844</v>
       </c>
       <c r="D47">
-        <v>233.780990600586</v>
+        <v>251.2807922363281</v>
       </c>
       <c r="E47">
-        <v>235.7704010009766</v>
+        <v>253.3807678222656</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>9892736</v>
       </c>
       <c r="G47">
-        <v>250.0544258546862</v>
+        <v>245.8963289543755</v>
       </c>
       <c r="H47">
-        <v>253.9736145019531</v>
+        <v>245.5754028320312</v>
       </c>
       <c r="I47">
-        <v>258.0384897867838</v>
+        <v>242.4142033894857</v>
       </c>
       <c r="L47">
-        <v>25.80112441022616</v>
+        <v>61.92245719082541</v>
       </c>
       <c r="M47">
-        <v>29.92231807570608</v>
-      </c>
-      <c r="N47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>60.91777072132643</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>235.7671203613281</v>
+        <v>253.3843688964844</v>
       </c>
       <c r="C48">
-        <v>239.197982788086</v>
+        <v>269.7856140136719</v>
       </c>
       <c r="D48">
-        <v>235.121826171875</v>
+        <v>253.2937927246093</v>
       </c>
       <c r="E48">
-        <v>238.8418731689453</v>
+        <v>269.7856140136719</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>54275808</v>
       </c>
       <c r="G48">
-        <v>249.0351028832552</v>
+        <v>248.0680821415843</v>
       </c>
       <c r="H48">
-        <v>252.6051780700683</v>
+        <v>247.6728530883789</v>
       </c>
       <c r="I48">
-        <v>256.7420415242513</v>
+        <v>243.5469355265299</v>
       </c>
       <c r="L48">
-        <v>33.86963076318165</v>
+        <v>76.24278558393615</v>
       </c>
       <c r="M48">
-        <v>34.72023483291409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>72.24028461454219</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>238.8641357421875</v>
+        <v>271.4410400390625</v>
       </c>
       <c r="C49">
-        <v>238.9464416503907</v>
+        <v>286.9382019042969</v>
       </c>
       <c r="D49">
-        <v>236.4278564453125</v>
+        <v>270.5656127929688</v>
       </c>
       <c r="E49">
-        <v>237.0874633789062</v>
+        <v>274.25146484375</v>
       </c>
       <c r="F49">
-        <v>378432</v>
+        <v>211155456</v>
       </c>
       <c r="G49">
-        <v>247.9489538374053</v>
+        <v>250.448389659963</v>
       </c>
       <c r="H49">
-        <v>251.2565147399902</v>
+        <v>249.6128303527832</v>
       </c>
       <c r="I49">
-        <v>255.5335271199544</v>
+        <v>244.8167790730794</v>
       </c>
       <c r="L49">
-        <v>31.6575065618797</v>
+        <v>78.69647760869655</v>
       </c>
       <c r="M49">
-        <v>33.3170692801712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>74.41344639899638</v>
+      </c>
+      <c r="O49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>237.0823059082031</v>
+        <v>274.5005187988281</v>
       </c>
       <c r="C50">
-        <v>240.0231170654297</v>
+        <v>280.8589782714844</v>
       </c>
       <c r="D50">
-        <v>237.0823059082031</v>
+        <v>269.2198486328125</v>
       </c>
       <c r="E50">
-        <v>239.5625</v>
+        <v>279.1728515625</v>
       </c>
       <c r="F50">
-        <v>5775328</v>
+        <v>51376512</v>
       </c>
       <c r="G50">
-        <v>247.1865489430957</v>
+        <v>253.0597043783755</v>
       </c>
       <c r="H50">
-        <v>250.0254112243652</v>
+        <v>251.6844329833984</v>
       </c>
       <c r="I50">
-        <v>254.480344136556</v>
+        <v>246.204926554362</v>
       </c>
       <c r="L50">
-        <v>38.07637569667319</v>
+        <v>81.11464070219067</v>
       </c>
       <c r="M50">
-        <v>37.17449455852115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>76.58851966025074</v>
+      </c>
+      <c r="O50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>239.5657501220703</v>
+        <v>279.0698852539062</v>
       </c>
       <c r="C51">
-        <v>239.8292846679688</v>
+        <v>279.698486328125</v>
       </c>
       <c r="D51">
-        <v>233.2189331054688</v>
+        <v>271.2068786621094</v>
       </c>
       <c r="E51">
-        <v>235.362533569336</v>
+        <v>276.5223693847656</v>
       </c>
       <c r="F51">
-        <v>9135696</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>246.1116384545721</v>
+        <v>255.1926739244109</v>
       </c>
       <c r="H51">
-        <v>248.4584884643555</v>
+        <v>253.5599159240723</v>
       </c>
       <c r="I51">
-        <v>253.522275797526</v>
+        <v>247.5596288045247</v>
       </c>
       <c r="L51">
-        <v>32.28722183909789</v>
+        <v>75.89503771980165</v>
       </c>
       <c r="M51">
-        <v>33.62035844513543</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>72.98981316243518</v>
+      </c>
+      <c r="O51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>235.3665008544922</v>
+        <v>276.56005859375</v>
       </c>
       <c r="C52">
-        <v>236.3717651367188</v>
+        <v>293.1942749023437</v>
       </c>
       <c r="D52">
-        <v>234.2631530761719</v>
+        <v>272.388671875</v>
       </c>
       <c r="E52">
-        <v>234.4050598144531</v>
+        <v>293.1942749023437</v>
       </c>
       <c r="F52">
-        <v>4062336</v>
+        <v>64177600</v>
       </c>
       <c r="G52">
-        <v>245.0474040327431</v>
+        <v>258.6473649224048</v>
       </c>
       <c r="H52">
-        <v>246.854655456543</v>
+        <v>255.9256980895996</v>
       </c>
       <c r="I52">
-        <v>252.4416086832682</v>
+        <v>249.4640711466471</v>
       </c>
       <c r="L52">
-        <v>31.07547781841567</v>
+        <v>83.4370685188167</v>
       </c>
       <c r="M52">
-        <v>32.84931119310969</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>79.51124953438377</v>
+      </c>
+      <c r="O52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>234.4012451171875</v>
+        <v>293.2823486328125</v>
       </c>
       <c r="C53">
-        <v>236.3126220703125</v>
+        <v>296.8141479492188</v>
       </c>
       <c r="D53">
-        <v>232.4662017822266</v>
+        <v>289.3130187988281</v>
       </c>
       <c r="E53">
-        <v>232.4712677001953</v>
+        <v>291.8941955566406</v>
       </c>
       <c r="F53">
-        <v>4391104</v>
+        <v>153860928</v>
       </c>
       <c r="G53">
-        <v>243.9041189116024</v>
+        <v>261.6698040709717</v>
       </c>
       <c r="H53">
-        <v>245.1403205871582</v>
+        <v>257.825235748291</v>
       </c>
       <c r="I53">
-        <v>251.342599995931</v>
+        <v>251.2753184000651</v>
       </c>
       <c r="L53">
-        <v>28.63376753936819</v>
+        <v>81.20802806192228</v>
       </c>
       <c r="M53">
-        <v>31.28856635128391</v>
-      </c>
-      <c r="N53" t="s">
+        <v>77.93110858174283</v>
+      </c>
+      <c r="O53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>232.4847564697266</v>
+        <v>291.8886413574219</v>
       </c>
       <c r="C54">
-        <v>234.8964233398437</v>
+        <v>293.0299987792969</v>
       </c>
       <c r="D54">
-        <v>231.3397521972656</v>
+        <v>281.3527221679688</v>
       </c>
       <c r="E54">
-        <v>232.6389312744141</v>
+        <v>282.244140625</v>
       </c>
       <c r="F54">
-        <v>2969792</v>
+        <v>40187072</v>
       </c>
       <c r="G54">
-        <v>242.8800109445852</v>
+        <v>263.540198303156</v>
       </c>
       <c r="H54">
-        <v>243.4061141967773</v>
+        <v>259.5051109313965</v>
       </c>
       <c r="I54">
-        <v>250.3121327718099</v>
+        <v>252.8133951822917</v>
       </c>
       <c r="L54">
-        <v>29.17656122124496</v>
+        <v>66.39603476939369</v>
       </c>
       <c r="M54">
-        <v>31.59204341768862</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>67.24813604897389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>233.0939178466797</v>
+        <v>282.2635803222656</v>
       </c>
       <c r="C55">
-        <v>235.5892639160156</v>
+        <v>285.0943298339844</v>
       </c>
       <c r="D55">
-        <v>231.6147918701172</v>
+        <v>274.0453491210937</v>
       </c>
       <c r="E55">
-        <v>235.3960418701172</v>
+        <v>274.0453491210937</v>
       </c>
       <c r="F55">
-        <v>7092800</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>242.1996501196336</v>
+        <v>264.4952120138777</v>
       </c>
       <c r="H55">
-        <v>242.0150764465332</v>
+        <v>260.7143592834473</v>
       </c>
       <c r="I55">
-        <v>249.4256301879883</v>
+        <v>254.0441563924154</v>
       </c>
       <c r="L55">
-        <v>37.9125810168748</v>
+        <v>56.53921345442068</v>
       </c>
       <c r="M55">
-        <v>36.5545118898926</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>59.75351841783564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>235.4014434814453</v>
+        <v>274.0274658203125</v>
       </c>
       <c r="C56">
-        <v>240.8262939453125</v>
+        <v>277.2353515625</v>
       </c>
       <c r="D56">
-        <v>234.5466003417969</v>
+        <v>261.4258117675781</v>
       </c>
       <c r="E56">
-        <v>239.5813751220703</v>
+        <v>264.9805603027344</v>
       </c>
       <c r="F56">
-        <v>18731136</v>
+        <v>9477824</v>
       </c>
       <c r="G56">
-        <v>241.9616251198551</v>
+        <v>264.5393345855919</v>
       </c>
       <c r="H56">
-        <v>241.0643005371094</v>
+        <v>261.4427742004394</v>
       </c>
       <c r="I56">
-        <v>248.7704661051432</v>
+        <v>254.9919718424479</v>
       </c>
       <c r="L56">
-        <v>48.71570516602777</v>
+        <v>47.72641352504895</v>
       </c>
       <c r="M56">
-        <v>43.28088742000939</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>52.75330281334797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>239.5755157470703</v>
+        <v>265.0916748046875</v>
       </c>
       <c r="C57">
-        <v>242.7883605957031</v>
+        <v>266.8800659179688</v>
       </c>
       <c r="D57">
-        <v>238.8289642333984</v>
+        <v>253.0501098632812</v>
       </c>
       <c r="E57">
-        <v>242.7294464111328</v>
+        <v>259.4535522460937</v>
       </c>
       <c r="F57">
-        <v>15550848</v>
+        <v>28944192</v>
       </c>
       <c r="G57">
-        <v>242.0314270554258</v>
+        <v>264.0769907365466</v>
       </c>
       <c r="H57">
-        <v>240.3207069396973</v>
+        <v>262.0012420654297</v>
       </c>
       <c r="I57">
-        <v>248.2516260782878</v>
+        <v>255.901747639974</v>
       </c>
       <c r="L57">
-        <v>55.29750355663813</v>
+        <v>43.11650193388527</v>
       </c>
       <c r="M57">
-        <v>47.76656593188649</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>48.98514227027966</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>242.7107696533203</v>
+        <v>259.4586181640625</v>
       </c>
       <c r="C58">
-        <v>242.7107696533203</v>
+        <v>260.1000671386719</v>
       </c>
       <c r="D58">
-        <v>232.0385284423828</v>
+        <v>252.1670227050781</v>
       </c>
       <c r="E58">
-        <v>234.9830017089844</v>
+        <v>258.4539794921875</v>
       </c>
       <c r="F58">
-        <v>20088736</v>
+        <v>10180672</v>
       </c>
       <c r="G58">
-        <v>241.3906611148402</v>
+        <v>263.5658078961503</v>
       </c>
       <c r="H58">
-        <v>239.2219200134277</v>
+        <v>262.6054344177246</v>
       </c>
       <c r="I58">
-        <v>247.2107060750326</v>
+        <v>256.9223266601563</v>
       </c>
       <c r="L58">
-        <v>40.80153895205903</v>
+        <v>42.28549987427021</v>
       </c>
       <c r="M58">
-        <v>39.49034311871117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>48.31301292100429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>234.9990997314453</v>
+        <v>258.5038757324219</v>
       </c>
       <c r="C59">
-        <v>236.7008666992188</v>
+        <v>262.133056640625</v>
       </c>
       <c r="D59">
-        <v>234.7201690673828</v>
+        <v>258.3482360839844</v>
       </c>
       <c r="E59">
-        <v>235.8036499023437</v>
+        <v>260.3828125</v>
       </c>
       <c r="F59">
-        <v>177088</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>240.8827510046133</v>
+        <v>263.2764446783185</v>
       </c>
       <c r="H59">
-        <v>238.0907936096191</v>
+        <v>263.3656051635742</v>
       </c>
       <c r="I59">
-        <v>246.2688034057617</v>
+        <v>257.7533564249674</v>
       </c>
       <c r="L59">
-        <v>42.59502595894677</v>
+        <v>44.60329608442611</v>
       </c>
       <c r="M59">
-        <v>40.66327026474352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>49.74594145368878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>235.8082275390625</v>
+        <v>260.3828735351562</v>
       </c>
       <c r="C60">
-        <v>236.4602203369141</v>
+        <v>261.0691528320312</v>
       </c>
       <c r="D60">
-        <v>234.95458984375</v>
+        <v>255.22900390625</v>
       </c>
       <c r="E60">
-        <v>236.1561584472656</v>
+        <v>255.8193359375</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>240.4530607721271</v>
+        <v>262.5985257018804</v>
       </c>
       <c r="H60">
-        <v>236.8097450256348</v>
+        <v>263.8590797424316</v>
       </c>
       <c r="I60">
-        <v>245.3345230102539</v>
+        <v>258.3559743245443</v>
       </c>
       <c r="L60">
-        <v>43.42333107805576</v>
+        <v>40.29598889972971</v>
       </c>
       <c r="M60">
-        <v>41.19060980716576</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>46.46389442682768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>236.1543884277344</v>
+        <v>255.8179016113281</v>
       </c>
       <c r="C61">
-        <v>237.5284271240234</v>
+        <v>256.9843139648437</v>
       </c>
       <c r="D61">
-        <v>235.7998657226562</v>
+        <v>252.7535858154297</v>
       </c>
       <c r="E61">
-        <v>237.5284271240234</v>
+        <v>255.3204040527344</v>
       </c>
       <c r="F61">
-        <v>261776</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>240.1871849859359</v>
+        <v>261.9368782792308</v>
       </c>
       <c r="H61">
-        <v>236.1470466613769</v>
+        <v>264.4698387145996</v>
       </c>
       <c r="I61">
-        <v>244.362104288737</v>
+        <v>258.8995641072591</v>
       </c>
       <c r="L61">
-        <v>46.78603378813803</v>
+        <v>39.82297860861607</v>
       </c>
       <c r="M61">
-        <v>43.30303213529894</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>46.10573841537532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>237.5265502929688</v>
+        <v>255.3204040527344</v>
       </c>
       <c r="C62">
-        <v>237.8916320800781</v>
+        <v>255.3204040527344</v>
       </c>
       <c r="D62">
-        <v>234.9549865722656</v>
+        <v>252.0791015625</v>
       </c>
       <c r="E62">
-        <v>235.8813018798828</v>
+        <v>254.030288696289</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>733216</v>
       </c>
       <c r="G62">
-        <v>239.7957410672038</v>
+        <v>261.2180974080542</v>
       </c>
       <c r="H62">
-        <v>236.1582679748535</v>
+        <v>265.0945266723633</v>
       </c>
       <c r="I62">
-        <v>243.3420903523763</v>
+        <v>259.1712860107422</v>
       </c>
       <c r="L62">
-        <v>43.3100348972043</v>
+        <v>38.50805605328909</v>
       </c>
       <c r="M62">
-        <v>41.38164879777419</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>45.13688037901233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>236.0846252441407</v>
+        <v>253.9791412353516</v>
       </c>
       <c r="C63">
-        <v>237.8149108886719</v>
+        <v>255.3890075683593</v>
       </c>
       <c r="D63">
-        <v>235.8846435546875</v>
+        <v>253.7229461669922</v>
       </c>
       <c r="E63">
-        <v>236.0610046386719</v>
+        <v>254.2338409423828</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>239.4562195737008</v>
+        <v>260.5831650020841</v>
       </c>
       <c r="H63">
-        <v>236.2994186401367</v>
+        <v>265.8167472839356</v>
       </c>
       <c r="I63">
-        <v>242.3188583374023</v>
+        <v>259.1822992960612</v>
       </c>
       <c r="L63">
-        <v>43.82231545966252</v>
+        <v>38.86635587798483</v>
       </c>
       <c r="M63">
-        <v>41.68565602728393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>45.33207587150489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>236.0489807128907</v>
+        <v>254.2372589111328</v>
       </c>
       <c r="C64">
-        <v>237.5567779541016</v>
+        <v>258.554931640625</v>
       </c>
       <c r="D64">
-        <v>236.0256042480469</v>
+        <v>252.9396057128907</v>
       </c>
       <c r="E64">
-        <v>237.5567779541016</v>
+        <v>256.0139465332031</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>239.2835430628282</v>
+        <v>260.1677815049131</v>
       </c>
       <c r="H64">
-        <v>236.4794677734375</v>
+        <v>266.2365402221679</v>
       </c>
       <c r="I64">
-        <v>241.3266489664714</v>
+        <v>259.4278762817383</v>
       </c>
       <c r="L64">
-        <v>48.20511977243215</v>
+        <v>42.18088760937454</v>
       </c>
       <c r="M64">
-        <v>44.27617599957353</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>47.10447989086931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>237.6129608154297</v>
+        <v>256.1566467285156</v>
       </c>
       <c r="C65">
-        <v>239.5404357910156</v>
+        <v>256.8468017578125</v>
       </c>
       <c r="D65">
-        <v>235.7676086425781</v>
+        <v>253.3949279785156</v>
       </c>
       <c r="E65">
-        <v>236.1018371582031</v>
+        <v>255.1552429199219</v>
       </c>
       <c r="F65">
-        <v>6048480</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>238.9942970714986</v>
+        <v>259.7120961790048</v>
       </c>
       <c r="H65">
-        <v>236.4685836791992</v>
+        <v>266.2820739746094</v>
       </c>
       <c r="I65">
-        <v>240.4228169759114</v>
+        <v>259.6043716430664</v>
       </c>
       <c r="L65">
-        <v>44.41341531577756</v>
+        <v>40.97525871038815</v>
       </c>
       <c r="M65">
-        <v>42.30741817336672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>46.32425324168577</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>236.1057281494141</v>
+        <v>255.1507415771484</v>
       </c>
       <c r="C66">
-        <v>239.556655883789</v>
+        <v>257.3870544433594</v>
       </c>
       <c r="D66">
-        <v>235.6111145019531</v>
+        <v>253.9615783691407</v>
       </c>
       <c r="E66">
-        <v>237.1225128173828</v>
+        <v>256.1330871582031</v>
       </c>
       <c r="F66">
-        <v>9953440</v>
+        <v>7550992</v>
       </c>
       <c r="G66">
-        <v>238.824134866579</v>
+        <v>259.3867317225683</v>
       </c>
       <c r="H66">
-        <v>236.5520782470703</v>
+        <v>266.2234039306641</v>
       </c>
       <c r="I66">
-        <v>239.707004292806</v>
+        <v>259.7950658162435</v>
       </c>
       <c r="L66">
-        <v>47.66241698473323</v>
+        <v>43.06019516359485</v>
       </c>
       <c r="M66">
-        <v>44.18249778058249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>47.39285135832273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>237.1353302001953</v>
+        <v>256.1240539550781</v>
       </c>
       <c r="C67">
-        <v>237.8898010253907</v>
+        <v>256.9681701660156</v>
       </c>
       <c r="D67">
-        <v>234.3559875488281</v>
+        <v>253.2196807861328</v>
       </c>
       <c r="E67">
-        <v>236.5460968017578</v>
+        <v>254.3663940429688</v>
       </c>
       <c r="F67">
-        <v>6366768</v>
+        <v>245488</v>
       </c>
       <c r="G67">
-        <v>238.6170404970498</v>
+        <v>258.9303373880592</v>
       </c>
       <c r="H67">
-        <v>236.5908630371094</v>
+        <v>266.2726852416992</v>
       </c>
       <c r="I67">
-        <v>239.0051635742188</v>
+        <v>259.9978057861328</v>
       </c>
       <c r="L67">
-        <v>45.95585677987469</v>
+        <v>40.17572276929437</v>
       </c>
       <c r="M67">
-        <v>43.32608691823504</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>45.62551109940767</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>236.5594482421875</v>
+        <v>254.3595123291016</v>
       </c>
       <c r="C68">
-        <v>236.8759613037109</v>
+        <v>254.5964508056641</v>
       </c>
       <c r="D68">
-        <v>230.7432250976562</v>
+        <v>249.5138397216797</v>
       </c>
       <c r="E68">
-        <v>232.1602783203125</v>
+        <v>249.6975402832031</v>
       </c>
       <c r="F68">
-        <v>9882384</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>238.0300621173464</v>
+        <v>258.0909921967087</v>
       </c>
       <c r="H68">
-        <v>236.2567832946777</v>
+        <v>265.2682815551758</v>
       </c>
       <c r="I68">
-        <v>238.1785481770833</v>
+        <v>260.1087193806966</v>
       </c>
       <c r="L68">
-        <v>35.17512315225318</v>
+        <v>33.50334996319004</v>
       </c>
       <c r="M68">
-        <v>37.38780078207076</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>41.2478468211374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>232.191650390625</v>
+        <v>249.7064666748047</v>
       </c>
       <c r="C69">
-        <v>233.2059478759766</v>
+        <v>251.8972778320312</v>
       </c>
       <c r="D69">
-        <v>223.1665954589844</v>
+        <v>245.6628570556641</v>
       </c>
       <c r="E69">
-        <v>227.8366088867188</v>
+        <v>246.0026397705078</v>
       </c>
       <c r="F69">
-        <v>28743488</v>
+        <v>10634000</v>
       </c>
       <c r="G69">
-        <v>237.1033845509257</v>
+        <v>256.992051067054</v>
       </c>
       <c r="H69">
-        <v>235.7942405700684</v>
+        <v>263.8558403015137</v>
       </c>
       <c r="I69">
-        <v>237.1588958740234</v>
+        <v>260.1361607869466</v>
       </c>
       <c r="L69">
-        <v>27.91293755374757</v>
+        <v>29.1875678272805</v>
       </c>
       <c r="M69">
-        <v>32.63851257933726</v>
+        <v>38.12984136880502</v>
       </c>
       <c r="N69" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>227.8403778076172</v>
+        <v>245.9675445556641</v>
       </c>
       <c r="C70">
-        <v>239.8489227294922</v>
+        <v>254.0894775390625</v>
       </c>
       <c r="D70">
-        <v>227.0924682617188</v>
+        <v>245.7116241455078</v>
       </c>
       <c r="E70">
-        <v>235.4519195556641</v>
+        <v>253.1558990478516</v>
       </c>
       <c r="F70">
-        <v>56886496</v>
+        <v>2465232</v>
       </c>
       <c r="G70">
-        <v>236.9532513695383</v>
+        <v>256.6433099743992</v>
       </c>
       <c r="H70">
-        <v>235.5887115478516</v>
+        <v>262.5549926757812</v>
       </c>
       <c r="I70">
-        <v>236.2813888549805</v>
+        <v>260.3763626098633</v>
       </c>
       <c r="L70">
-        <v>48.84142429422882</v>
+        <v>44.7019597809276</v>
       </c>
       <c r="M70">
-        <v>45.71760071128151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>46.55316489468712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>235.4641571044922</v>
+        <v>253.1598815917969</v>
       </c>
       <c r="C71">
-        <v>238.0480499267578</v>
+        <v>253.9587097167969</v>
       </c>
       <c r="D71">
-        <v>234.8595123291016</v>
+        <v>250.3368835449219</v>
       </c>
       <c r="E71">
-        <v>237.7407989501953</v>
+        <v>251.2097778320312</v>
       </c>
       <c r="F71">
-        <v>7218528</v>
+        <v>519888</v>
       </c>
       <c r="G71">
-        <v>237.0248466041435</v>
+        <v>256.1493525069113</v>
       </c>
       <c r="H71">
-        <v>235.7076248168945</v>
+        <v>261.2893630981445</v>
       </c>
       <c r="I71">
-        <v>235.8466690063477</v>
+        <v>260.6465143839518</v>
       </c>
       <c r="L71">
-        <v>53.41460236641085</v>
+        <v>41.8927597656383</v>
       </c>
       <c r="M71">
-        <v>48.92737118701077</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>44.76743777443404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>237.8246002197266</v>
+        <v>251.2097320556641</v>
       </c>
       <c r="C72">
-        <v>240.2440490722656</v>
+        <v>256.0858154296875</v>
       </c>
       <c r="D72">
-        <v>237.4188690185547</v>
+        <v>251.1529083251953</v>
       </c>
       <c r="E72">
-        <v>239.012710571289</v>
+        <v>256.0858154296875</v>
       </c>
       <c r="F72">
-        <v>24041792</v>
+        <v>12795376</v>
       </c>
       <c r="G72">
-        <v>237.2055615102476</v>
+        <v>256.1435764089819</v>
       </c>
       <c r="H72">
-        <v>235.9380073547363</v>
+        <v>259.4339401245117</v>
       </c>
       <c r="I72">
-        <v>235.9585301717122</v>
+        <v>261.1314905802409</v>
       </c>
       <c r="L72">
-        <v>55.8801868076957</v>
+        <v>50.6367476210652</v>
       </c>
       <c r="M72">
-        <v>50.67286977411459</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>49.9479163974647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>239.1191711425781</v>
+        <v>255.9795837402344</v>
       </c>
       <c r="C73">
-        <v>246.6708374023437</v>
+        <v>257.3055725097656</v>
       </c>
       <c r="D73">
-        <v>238.7726593017578</v>
+        <v>248.5346221923828</v>
       </c>
       <c r="E73">
-        <v>245.8786315917969</v>
+        <v>248.9246673583984</v>
       </c>
       <c r="F73">
-        <v>26614208</v>
+        <v>15521360</v>
       </c>
       <c r="G73">
-        <v>237.9940224267521</v>
+        <v>255.4873119498379</v>
       </c>
       <c r="H73">
-        <v>236.6083755493164</v>
+        <v>257.2854637145996</v>
       </c>
       <c r="I73">
-        <v>236.3798848470052</v>
+        <v>261.4359985351563</v>
       </c>
       <c r="L73">
-        <v>66.611659005734</v>
+        <v>40.55395859030877</v>
       </c>
       <c r="M73">
-        <v>58.84884975683762</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>43.49553974136933</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>245.8677368164062</v>
+        <v>248.9223327636719</v>
       </c>
       <c r="C74">
-        <v>255.4924011230469</v>
+        <v>253.2238922119141</v>
       </c>
       <c r="D74">
-        <v>244.5941619873047</v>
+        <v>248.7325897216797</v>
       </c>
       <c r="E74">
-        <v>253.9034423828125</v>
+        <v>252.01708984375</v>
       </c>
       <c r="F74">
-        <v>44736320</v>
+        <v>1145328</v>
       </c>
       <c r="G74">
-        <v>239.4403333318485</v>
+        <v>255.1718372129208</v>
       </c>
       <c r="H74">
-        <v>237.6716011047363</v>
+        <v>255.7741111755371</v>
       </c>
       <c r="I74">
-        <v>237.0448064168294</v>
+        <v>261.5826319376628</v>
       </c>
       <c r="L74">
-        <v>74.70247316180087</v>
+        <v>45.79725983914173</v>
       </c>
       <c r="M74">
-        <v>65.95220646346722</v>
-      </c>
-      <c r="O74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>46.69774224197938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>253.9297485351562</v>
+        <v>252.01708984375</v>
       </c>
       <c r="C75">
-        <v>256.5728759765625</v>
+        <v>252.9002838134766</v>
       </c>
       <c r="D75">
-        <v>247.645751953125</v>
+        <v>248.4837341308593</v>
       </c>
       <c r="E75">
-        <v>248.6466369628907</v>
+        <v>250.424072265625</v>
       </c>
       <c r="F75">
-        <v>20680896</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>240.2772700255796</v>
+        <v>254.7402222177121</v>
       </c>
       <c r="H75">
-        <v>238.334130859375</v>
+        <v>254.5930473327637</v>
       </c>
       <c r="I75">
-        <v>237.4557103474935</v>
+        <v>261.4552820841471</v>
       </c>
       <c r="L75">
-        <v>63.38336299989714</v>
+        <v>43.57013264480086</v>
       </c>
       <c r="M75">
-        <v>58.79279186730625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>45.2743496187344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>248.6429138183593</v>
+        <v>250.3768920898437</v>
       </c>
       <c r="C76">
-        <v>249.8603820800781</v>
+        <v>255.0100250244141</v>
       </c>
       <c r="D76">
-        <v>247.8687133789062</v>
+        <v>249.2922515869141</v>
       </c>
       <c r="E76">
-        <v>249.8603820800781</v>
+        <v>252.6834716796875</v>
       </c>
       <c r="F76">
-        <v>1151488</v>
+        <v>13283280</v>
       </c>
       <c r="G76">
-        <v>241.148462030534</v>
+        <v>254.5532448960735</v>
       </c>
       <c r="H76">
-        <v>238.8480812072754</v>
+        <v>253.9781929016113</v>
       </c>
       <c r="I76">
-        <v>237.9359690348307</v>
+        <v>261.3011815388998</v>
       </c>
       <c r="L76">
-        <v>64.76995478639857</v>
+        <v>47.63348223662935</v>
       </c>
       <c r="M76">
-        <v>59.87583187984249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>47.70887303407212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>249.8882598876953</v>
+        <v>252.9160919189453</v>
       </c>
       <c r="C77">
-        <v>251.2814025878907</v>
+        <v>254.9958648681641</v>
       </c>
       <c r="D77">
-        <v>246.5695037841797</v>
+        <v>250.3560028076172</v>
       </c>
       <c r="E77">
-        <v>250.4122619628907</v>
+        <v>251.1929321289062</v>
       </c>
       <c r="F77">
-        <v>2798400</v>
+        <v>9313216</v>
       </c>
       <c r="G77">
-        <v>241.9906256607483</v>
+        <v>254.2477619172401</v>
       </c>
       <c r="H77">
-        <v>239.2322219848633</v>
+        <v>253.5651618957519</v>
       </c>
       <c r="I77">
-        <v>238.4240310668945</v>
+        <v>261.2282536824544</v>
       </c>
       <c r="L77">
-        <v>65.43940906018841</v>
+        <v>45.21701947888403</v>
       </c>
       <c r="M77">
-        <v>60.38566197081122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>46.24722150226437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>250.5455322265625</v>
+        <v>251.1741638183593</v>
       </c>
       <c r="C78">
-        <v>252.255111694336</v>
+        <v>254.6777191162109</v>
       </c>
       <c r="D78">
-        <v>245.2501831054688</v>
+        <v>251.1741638183593</v>
       </c>
       <c r="E78">
-        <v>248.284194946289</v>
+        <v>252.4809417724609</v>
       </c>
       <c r="F78">
-        <v>20707136</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>242.5627683230701</v>
+        <v>254.0871419040784</v>
       </c>
       <c r="H78">
-        <v>239.8972816467285</v>
+        <v>253.2665100097656</v>
       </c>
       <c r="I78">
-        <v>238.7387751261393</v>
+        <v>260.6514312744141</v>
       </c>
       <c r="L78">
-        <v>60.4558531837111</v>
+        <v>47.79176843115599</v>
       </c>
       <c r="M78">
-        <v>57.35911587869775</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>47.73725889078657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>248.3184509277344</v>
+        <v>252.4866790771484</v>
       </c>
       <c r="C79">
-        <v>249.9038391113281</v>
+        <v>254.4708099365234</v>
       </c>
       <c r="D79">
-        <v>245.5998992919922</v>
+        <v>249.4595184326172</v>
       </c>
       <c r="E79">
-        <v>246.370132446289</v>
+        <v>253.6024169921875</v>
       </c>
       <c r="F79">
-        <v>2406336</v>
+        <v>3236016</v>
       </c>
       <c r="G79">
-        <v>242.9088923342719</v>
+        <v>254.0430760029974</v>
       </c>
       <c r="H79">
-        <v>240.4256057739258</v>
+        <v>252.927490234375</v>
       </c>
       <c r="I79">
-        <v>239.0481974283854</v>
+        <v>259.963129679362</v>
       </c>
       <c r="L79">
-        <v>56.13049412484071</v>
+        <v>50.08952504869463</v>
       </c>
       <c r="M79">
-        <v>54.70339027214215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>49.06129371919675</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>246.358139038086</v>
+        <v>253.6127014160156</v>
       </c>
       <c r="C80">
-        <v>250.5909423828125</v>
+        <v>254.6252746582031</v>
       </c>
       <c r="D80">
-        <v>240.5681915283203</v>
+        <v>251.6678314208984</v>
       </c>
       <c r="E80">
-        <v>245.1793975830078</v>
+        <v>253.3175201416016</v>
       </c>
       <c r="F80">
-        <v>38878144</v>
+        <v>540960</v>
       </c>
       <c r="G80">
-        <v>243.1153019023388</v>
+        <v>253.9771163792341</v>
       </c>
       <c r="H80">
-        <v>240.8767677307129</v>
+        <v>252.8023994445801</v>
       </c>
       <c r="I80">
-        <v>239.235427347819</v>
+        <v>259.1012852986653</v>
       </c>
       <c r="L80">
-        <v>53.45394598884772</v>
+        <v>49.4673194578429</v>
       </c>
       <c r="M80">
-        <v>53.05760918571662</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>48.72359516514027</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>245.1351318359375</v>
+        <v>253.3288116455078</v>
       </c>
       <c r="C81">
-        <v>247.2178955078125</v>
+        <v>256.1964721679688</v>
       </c>
       <c r="D81">
-        <v>244.4114990234375</v>
+        <v>251.2300872802734</v>
       </c>
       <c r="E81">
-        <v>245.9498443603516</v>
+        <v>251.2300872802734</v>
       </c>
       <c r="F81">
-        <v>1699744</v>
+        <v>11307040</v>
       </c>
       <c r="G81">
-        <v>243.3729875803399</v>
+        <v>253.7273864611468</v>
       </c>
       <c r="H81">
-        <v>241.2978385925293</v>
+        <v>252.597883605957</v>
       </c>
       <c r="I81">
-        <v>239.5883377075195</v>
+        <v>258.2582092285156</v>
       </c>
       <c r="L81">
-        <v>55.01536856855895</v>
+        <v>44.87272840582033</v>
       </c>
       <c r="M81">
-        <v>54.02149356172142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>46.21361824239932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>245.9710693359375</v>
+        <v>251.1553192138672</v>
       </c>
       <c r="C82">
-        <v>246.1662902832031</v>
+        <v>251.28369140625</v>
       </c>
       <c r="D82">
-        <v>242.6969604492188</v>
+        <v>249.7796020507812</v>
       </c>
       <c r="E82">
-        <v>243.105224609375</v>
+        <v>249.8217010498047</v>
       </c>
       <c r="F82">
-        <v>3010784</v>
+        <v>10592176</v>
       </c>
       <c r="G82">
-        <v>243.3486454920704</v>
+        <v>253.3723241510248</v>
       </c>
       <c r="H82">
-        <v>241.6590347290039</v>
+        <v>252.3874542236328</v>
       </c>
       <c r="I82">
-        <v>239.8783432006836</v>
+        <v>256.8124567667643</v>
       </c>
       <c r="L82">
-        <v>48.28710690923882</v>
+        <v>41.91753443757429</v>
       </c>
       <c r="M82">
-        <v>49.94386080848034</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>44.54623532729412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>243.1141357421875</v>
+        <v>249.8244323730469</v>
       </c>
       <c r="C83">
-        <v>244.9710388183593</v>
+        <v>250.288818359375</v>
       </c>
       <c r="D83">
-        <v>240.9787139892578</v>
+        <v>246.360855102539</v>
       </c>
       <c r="E83">
-        <v>241.5365295410156</v>
+        <v>246.3770446777344</v>
       </c>
       <c r="F83">
-        <v>3175264</v>
+        <v>4628400</v>
       </c>
       <c r="G83">
-        <v>243.1839076783381</v>
+        <v>252.7363896534529</v>
       </c>
       <c r="H83">
-        <v>241.9328109741211</v>
+        <v>251.9946144104004</v>
       </c>
       <c r="I83">
-        <v>240.1805185953776</v>
+        <v>255.2952184041341</v>
       </c>
       <c r="L83">
-        <v>44.88180229616546</v>
+        <v>35.48697004535326</v>
       </c>
       <c r="M83">
-        <v>47.80107775087406</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>40.68026947689637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>241.581771850586</v>
+        <v>246.3821105957031</v>
       </c>
       <c r="C84">
-        <v>241.8228912353516</v>
+        <v>248.8435516357422</v>
       </c>
       <c r="D84">
-        <v>235.0027770996093</v>
+        <v>245.8074493408203</v>
       </c>
       <c r="E84">
-        <v>239.7894287109375</v>
+        <v>245.8527984619141</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>10597712</v>
       </c>
       <c r="G84">
-        <v>242.8753186813017</v>
+        <v>252.1106086360403</v>
       </c>
       <c r="H84">
-        <v>242.0444435119629</v>
+        <v>251.4865570068359</v>
       </c>
       <c r="I84">
-        <v>240.4188685099284</v>
+        <v>254.0821736653646</v>
       </c>
       <c r="L84">
-        <v>41.23800361237037</v>
+        <v>34.5787225096232</v>
       </c>
       <c r="M84">
-        <v>45.46167166396554</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>40.10974926272678</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>240.6117706298828</v>
+        <v>245.8526000976562</v>
       </c>
       <c r="C85">
-        <v>248.2424621582031</v>
+        <v>246.3096160888672</v>
       </c>
       <c r="D85">
-        <v>239.7074890136719</v>
+        <v>242.0829010009766</v>
       </c>
       <c r="E85">
-        <v>247.6180877685547</v>
+        <v>242.3226470947266</v>
       </c>
       <c r="F85">
-        <v>9518784</v>
+        <v>10010096</v>
       </c>
       <c r="G85">
-        <v>243.3064795074156</v>
+        <v>251.2207939504663</v>
       </c>
       <c r="H85">
-        <v>242.6202560424805</v>
+        <v>250.8449272155762</v>
       </c>
       <c r="I85">
-        <v>240.8262700398763</v>
+        <v>253.0247502644857</v>
       </c>
       <c r="L85">
-        <v>58.30312902197528</v>
+        <v>28.96317590383675</v>
       </c>
       <c r="M85">
-        <v>55.88115441748604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>36.40707342676561</v>
+      </c>
+      <c r="N85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>247.6348419189453</v>
+        <v>242.308349609375</v>
       </c>
       <c r="C86">
-        <v>259.7375793457031</v>
+        <v>243.9250793457031</v>
       </c>
       <c r="D86">
-        <v>243.6446380615234</v>
+        <v>241.4932556152344</v>
       </c>
       <c r="E86">
-        <v>254.2445678710937</v>
+        <v>243.4872741699219</v>
       </c>
       <c r="F86">
-        <v>41655360</v>
+        <v>13499888</v>
       </c>
       <c r="G86">
-        <v>244.3008511768408</v>
+        <v>250.5177466976895</v>
       </c>
       <c r="H86">
-        <v>243.476358795166</v>
+        <v>250.2126365661621</v>
       </c>
       <c r="I86">
-        <v>241.3150431315104</v>
+        <v>252.3083073933919</v>
       </c>
       <c r="L86">
-        <v>67.33607401983015</v>
+        <v>33.00143929368613</v>
       </c>
       <c r="M86">
-        <v>62.42487791616245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>38.42654392800711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>254.2969055175781</v>
+        <v>243.4680633544922</v>
       </c>
       <c r="C87">
-        <v>258.559814453125</v>
+        <v>244.7295532226562</v>
       </c>
       <c r="D87">
-        <v>252.4664306640625</v>
+        <v>243.1964263916016</v>
       </c>
       <c r="E87">
-        <v>257.3064880371094</v>
+        <v>244.0681304931641</v>
       </c>
       <c r="F87">
-        <v>29868768</v>
+        <v>483472</v>
       </c>
       <c r="G87">
-        <v>245.4831818005016</v>
+        <v>249.9314179518236</v>
       </c>
       <c r="H87">
-        <v>244.5143783569336</v>
+        <v>249.6977233886719</v>
       </c>
       <c r="I87">
-        <v>241.800944519043</v>
+        <v>251.7954600016276</v>
       </c>
       <c r="L87">
-        <v>70.6421555019641</v>
+        <v>35.07241366706837</v>
       </c>
       <c r="M87">
-        <v>65.00755847721673</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>39.45917119017483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>257.4780883789062</v>
+        <v>244.0533905029297</v>
       </c>
       <c r="C88">
-        <v>258.2710876464844</v>
+        <v>244.616943359375</v>
       </c>
       <c r="D88">
-        <v>251.2807922363281</v>
+        <v>241.6667633056641</v>
       </c>
       <c r="E88">
-        <v>253.3807678222656</v>
+        <v>242.1992797851562</v>
       </c>
       <c r="F88">
-        <v>9892736</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>246.2011441661165</v>
+        <v>249.2284963003084</v>
       </c>
       <c r="H88">
-        <v>245.5754028320312</v>
+        <v>249.3228103637695</v>
       </c>
       <c r="I88">
-        <v>242.4142033894857</v>
+        <v>251.2536366780599</v>
       </c>
       <c r="L88">
-        <v>61.64290626172066</v>
+        <v>31.54323318521076</v>
       </c>
       <c r="M88">
-        <v>59.37288670476661</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>37.29217409100636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>253.3843688964844</v>
+        <v>242.1992797851562</v>
       </c>
       <c r="C89">
-        <v>269.7856140136719</v>
+        <v>244.1159362792969</v>
       </c>
       <c r="D89">
-        <v>253.2937927246093</v>
+        <v>242.1174926757812</v>
       </c>
       <c r="E89">
-        <v>269.7856140136719</v>
+        <v>243.6417846679688</v>
       </c>
       <c r="F89">
-        <v>54275808</v>
+        <v>252608</v>
       </c>
       <c r="G89">
-        <v>248.3451868795306</v>
+        <v>248.7206134246411</v>
       </c>
       <c r="H89">
-        <v>247.6728530883789</v>
+        <v>249.2047676086426</v>
       </c>
       <c r="I89">
-        <v>243.5469355265299</v>
+        <v>250.6956024169922</v>
       </c>
       <c r="L89">
-        <v>76.01018624188643</v>
+        <v>37.04420163975269</v>
       </c>
       <c r="M89">
-        <v>70.77332748180757</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>40.02979476512217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>271.4410400390625</v>
+        <v>243.6578216552734</v>
       </c>
       <c r="C90">
-        <v>286.9382019042969</v>
+        <v>244.0219268798828</v>
       </c>
       <c r="D90">
-        <v>270.5656127929688</v>
+        <v>239.5846252441407</v>
       </c>
       <c r="E90">
-        <v>274.25146484375</v>
+        <v>240.7200469970703</v>
       </c>
       <c r="F90">
-        <v>211155456</v>
+        <v>1540864</v>
       </c>
       <c r="G90">
-        <v>250.700303058096</v>
+        <v>247.9932892039529</v>
       </c>
       <c r="H90">
-        <v>249.6128303527832</v>
+        <v>248.5829750061035</v>
       </c>
       <c r="I90">
-        <v>244.8167790730794</v>
+        <v>250.1922927856445</v>
       </c>
       <c r="L90">
-        <v>78.47893651962619</v>
+        <v>31.31101179228466</v>
       </c>
       <c r="M90">
-        <v>72.99493642341142</v>
-      </c>
-      <c r="O90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>36.54931303719464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>274.5005187988281</v>
+        <v>240.7484588623047</v>
       </c>
       <c r="C91">
-        <v>280.8589782714844</v>
+        <v>242.1481475830078</v>
       </c>
       <c r="D91">
-        <v>269.2198486328125</v>
+        <v>239.1082458496093</v>
       </c>
       <c r="E91">
-        <v>279.1728515625</v>
+        <v>241.8544769287109</v>
       </c>
       <c r="F91">
-        <v>51376512</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>253.2887165584964</v>
+        <v>247.4352153607491</v>
       </c>
       <c r="H91">
-        <v>251.6844329833984</v>
+        <v>248.1152099609375</v>
       </c>
       <c r="I91">
-        <v>246.204926554362</v>
+        <v>249.7434285481771</v>
       </c>
       <c r="L91">
-        <v>80.91395385686393</v>
+        <v>35.66054302631716</v>
       </c>
       <c r="M91">
-        <v>75.22949180051735</v>
-      </c>
-      <c r="O91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>38.77520694348823</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>279.0698852539062</v>
+        <v>241.8531951904297</v>
       </c>
       <c r="C92">
-        <v>279.698486328125</v>
+        <v>241.8772277832031</v>
       </c>
       <c r="D92">
-        <v>271.2068786621094</v>
+        <v>233.8459167480469</v>
       </c>
       <c r="E92">
-        <v>276.5223693847656</v>
+        <v>235.8050537109375</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>15834688</v>
       </c>
       <c r="G92">
-        <v>255.4008668154299</v>
+        <v>246.3779279380389</v>
       </c>
       <c r="H92">
-        <v>253.5599159240723</v>
+        <v>247.101171875</v>
       </c>
       <c r="I92">
-        <v>247.5596288045247</v>
+        <v>249.135920715332</v>
       </c>
       <c r="L92">
-        <v>75.72290055500267</v>
+        <v>25.84325779795516</v>
       </c>
       <c r="M92">
-        <v>71.78442064597009</v>
-      </c>
-      <c r="O92" t="s">
+        <v>32.27340301181243</v>
+      </c>
+      <c r="N92" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>276.56005859375</v>
+        <v>235.7826232910156</v>
       </c>
       <c r="C93">
-        <v>293.1942749023437</v>
+        <v>237.6683349609375</v>
       </c>
       <c r="D93">
-        <v>272.388671875</v>
+        <v>234.7440795898437</v>
       </c>
       <c r="E93">
-        <v>293.1942749023437</v>
+        <v>237.434585571289</v>
       </c>
       <c r="F93">
-        <v>64177600</v>
+        <v>11260672</v>
       </c>
       <c r="G93">
-        <v>258.8366311869675</v>
+        <v>245.5648968137889</v>
       </c>
       <c r="H93">
-        <v>255.9256980895996</v>
+        <v>246.5266677856445</v>
       </c>
       <c r="I93">
-        <v>249.4640711466471</v>
+        <v>248.5759455362956</v>
       </c>
       <c r="L93">
-        <v>83.30310183437305</v>
+        <v>31.55351920739863</v>
       </c>
       <c r="M93">
-        <v>78.46483390601367</v>
-      </c>
-      <c r="O93" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>35.41496210920013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>293.2823486328125</v>
+        <v>237.4286041259766</v>
       </c>
       <c r="C94">
-        <v>296.8141479492188</v>
+        <v>237.7254486083984</v>
       </c>
       <c r="D94">
-        <v>289.3130187988281</v>
+        <v>231.8968658447266</v>
       </c>
       <c r="E94">
-        <v>291.8941955566406</v>
+        <v>234.0487213134766</v>
       </c>
       <c r="F94">
-        <v>153860928</v>
+        <v>11641168</v>
       </c>
       <c r="G94">
-        <v>261.8418643114832</v>
+        <v>244.5179717683059</v>
       </c>
       <c r="H94">
-        <v>257.825235748291</v>
+        <v>245.6282493591308</v>
       </c>
       <c r="I94">
-        <v>251.2753184000651</v>
+        <v>247.8437713623047</v>
       </c>
       <c r="L94">
-        <v>81.0821141753628</v>
+        <v>26.7403451656782</v>
       </c>
       <c r="M94">
-        <v>76.93512663171681</v>
-      </c>
-      <c r="O94" t="s">
+        <v>32.08472142297449</v>
+      </c>
+      <c r="N94" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>291.8886413574219</v>
+        <v>234.0572204589844</v>
       </c>
       <c r="C95">
-        <v>293.0299987792969</v>
+        <v>237.3827972412109</v>
       </c>
       <c r="D95">
-        <v>281.3527221679688</v>
+        <v>234.0572204589844</v>
       </c>
       <c r="E95">
-        <v>282.244140625</v>
+        <v>236.4673767089844</v>
       </c>
       <c r="F95">
-        <v>40187072</v>
+        <v>2541584</v>
       </c>
       <c r="G95">
-        <v>263.6966167036211</v>
+        <v>243.7860994901858</v>
       </c>
       <c r="H95">
-        <v>259.5051109313965</v>
+        <v>244.9304145812988</v>
       </c>
       <c r="I95">
-        <v>252.8133951822917</v>
+        <v>247.2208424886068</v>
       </c>
       <c r="L95">
-        <v>66.31740364600196</v>
+        <v>34.74027169487373</v>
       </c>
       <c r="M95">
-        <v>66.56211230234551</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>36.66627735372497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>282.2635803222656</v>
+        <v>236.472412109375</v>
       </c>
       <c r="C96">
-        <v>285.0943298339844</v>
+        <v>237.7614288330078</v>
       </c>
       <c r="D96">
-        <v>274.0453491210937</v>
+        <v>236.4416656494141</v>
       </c>
       <c r="E96">
-        <v>274.0453491210937</v>
+        <v>236.967788696289</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1797424</v>
       </c>
       <c r="G96">
-        <v>264.6374105597549</v>
+        <v>243.166253054377</v>
       </c>
       <c r="H96">
-        <v>260.7143592834473</v>
+        <v>244.1446304321289</v>
       </c>
       <c r="I96">
-        <v>254.0441563924154</v>
+        <v>246.581999206543</v>
       </c>
       <c r="L96">
-        <v>56.48604345253532</v>
+        <v>36.35787503104041</v>
       </c>
       <c r="M96">
-        <v>59.25253923565445</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>37.60414092518658</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>274.0274658203125</v>
+        <v>236.970932006836</v>
       </c>
       <c r="C97">
-        <v>277.2353515625</v>
+        <v>236.9925842285156</v>
       </c>
       <c r="D97">
-        <v>261.4258117675781</v>
+        <v>233.0323791503907</v>
       </c>
       <c r="E97">
-        <v>264.9805603027344</v>
+        <v>234.146987915039</v>
       </c>
       <c r="F97">
-        <v>9477824</v>
+        <v>6968704</v>
       </c>
       <c r="G97">
-        <v>264.6686059909349</v>
+        <v>242.3463198598917</v>
       </c>
       <c r="H97">
-        <v>261.4427742004394</v>
+        <v>243.2923332214355</v>
       </c>
       <c r="I97">
-        <v>254.9919718424479</v>
+        <v>245.9080190022786</v>
       </c>
       <c r="L97">
-        <v>47.69194201480377</v>
+        <v>31.41911471768564</v>
       </c>
       <c r="M97">
-        <v>52.40087619134454</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>34.50254526873652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>265.0916748046875</v>
+        <v>234.1272277832031</v>
       </c>
       <c r="C98">
-        <v>266.8800659179688</v>
+        <v>235.907455444336</v>
       </c>
       <c r="D98">
-        <v>253.0501098632812</v>
+        <v>227.33447265625</v>
       </c>
       <c r="E98">
-        <v>259.4535522460937</v>
+        <v>235.6254272460937</v>
       </c>
       <c r="F98">
-        <v>28944192</v>
+        <v>10389168</v>
       </c>
       <c r="G98">
-        <v>264.1945101959494</v>
+        <v>241.7353296222737</v>
       </c>
       <c r="H98">
-        <v>262.0012420654297</v>
+        <v>242.4495574951172</v>
       </c>
       <c r="I98">
-        <v>255.901747639974</v>
+        <v>245.4389485677083</v>
       </c>
       <c r="L98">
-        <v>43.09028150118376</v>
+        <v>36.50474022002101</v>
       </c>
       <c r="M98">
-        <v>48.70292507421453</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>37.4161302984751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>259.4586181640625</v>
+        <v>235.6307678222656</v>
       </c>
       <c r="C99">
-        <v>260.1000671386719</v>
+        <v>236.8053588867188</v>
       </c>
       <c r="D99">
-        <v>252.1670227050781</v>
+        <v>234.99609375</v>
       </c>
       <c r="E99">
-        <v>258.4539794921875</v>
+        <v>236.3917236328125</v>
       </c>
       <c r="F99">
-        <v>10180672</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>263.6726437683346</v>
+        <v>241.2495472595954</v>
       </c>
       <c r="H99">
-        <v>262.6054344177246</v>
+        <v>241.5890228271484</v>
       </c>
       <c r="I99">
-        <v>256.9223266601563</v>
+        <v>245.1185846964518</v>
       </c>
       <c r="L99">
-        <v>42.26065498080261</v>
+        <v>39.13648698593362</v>
       </c>
       <c r="M99">
-        <v>48.04259951028635</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>38.93245322295326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>258.5038757324219</v>
+        <v>236.4375</v>
       </c>
       <c r="C100">
-        <v>262.133056640625</v>
+        <v>237.7420806884766</v>
       </c>
       <c r="D100">
-        <v>258.3482360839844</v>
+        <v>235.4219818115234</v>
       </c>
       <c r="E100">
-        <v>260.3828125</v>
+        <v>236.4002685546875</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>263.373568198486</v>
+        <v>240.8087037409674</v>
       </c>
       <c r="H100">
-        <v>263.3656051635742</v>
+        <v>240.7431602478027</v>
       </c>
       <c r="I100">
-        <v>257.7533564249674</v>
+        <v>244.560063680013</v>
       </c>
       <c r="L100">
-        <v>44.57711683008692</v>
+        <v>39.16811689149903</v>
       </c>
       <c r="M100">
-        <v>49.46639703107593</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>38.95021594099224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>260.3828735351562</v>
+        <v>236.4028778076172</v>
       </c>
       <c r="C101">
-        <v>261.0691528320312</v>
+        <v>237.0564422607422</v>
       </c>
       <c r="D101">
-        <v>255.22900390625</v>
+        <v>235.8448791503907</v>
       </c>
       <c r="E101">
-        <v>255.8193359375</v>
+        <v>236.4205780029297</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>262.6868198111236</v>
+        <v>240.4097832193276</v>
       </c>
       <c r="H101">
-        <v>263.8590797424316</v>
+        <v>240.0026847839355</v>
       </c>
       <c r="I101">
-        <v>258.3559743245443</v>
+        <v>244.0670903523763</v>
       </c>
       <c r="L101">
-        <v>40.27624956327709</v>
+        <v>39.25253033618023</v>
       </c>
       <c r="M101">
-        <v>46.23800835504706</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>38.99563462783123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>255.8179016113281</v>
+        <v>236.4104614257812</v>
       </c>
       <c r="C102">
-        <v>256.9843139648437</v>
+        <v>236.6025695800781</v>
       </c>
       <c r="D102">
-        <v>252.7535858154297</v>
+        <v>235.080078125</v>
       </c>
       <c r="E102">
-        <v>255.3204040527344</v>
+        <v>236.6025695800781</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>32448</v>
       </c>
       <c r="G102">
-        <v>262.01714565127</v>
+        <v>240.0636728884867</v>
       </c>
       <c r="H102">
-        <v>264.4698387145996</v>
+        <v>239.3417282104492</v>
       </c>
       <c r="I102">
-        <v>258.8995641072591</v>
+        <v>243.417648824056</v>
       </c>
       <c r="L102">
-        <v>39.80389556162829</v>
+        <v>40.09060170931404</v>
       </c>
       <c r="M102">
-        <v>45.88541000891016</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>39.43048752378577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>255.3204040527344</v>
+        <v>236.6246032714844</v>
       </c>
       <c r="C103">
-        <v>255.3204040527344</v>
+        <v>238.2254791259766</v>
       </c>
       <c r="D103">
-        <v>252.0791015625</v>
+        <v>236.3552703857422</v>
       </c>
       <c r="E103">
-        <v>254.030288696289</v>
+        <v>237.7927551269531</v>
       </c>
       <c r="F103">
-        <v>733216</v>
+        <v>2378224</v>
       </c>
       <c r="G103">
-        <v>261.2910677462717</v>
+        <v>239.8572258192564</v>
       </c>
       <c r="H103">
-        <v>265.0945266723633</v>
+        <v>238.9125137329102</v>
       </c>
       <c r="I103">
-        <v>259.1712860107422</v>
+        <v>243.0465850830078</v>
       </c>
       <c r="L103">
-        <v>38.49074448142621</v>
+        <v>45.61110825120926</v>
       </c>
       <c r="M103">
-        <v>44.93129214038203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>42.32589939456572</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>253.9791412353516</v>
+        <v>237.7869567871093</v>
       </c>
       <c r="C104">
-        <v>255.3890075683593</v>
+        <v>238.2056427001953</v>
       </c>
       <c r="D104">
-        <v>253.7229461669922</v>
+        <v>236.4807891845703</v>
       </c>
       <c r="E104">
-        <v>254.2338409423828</v>
+        <v>238.2056427001953</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>260.6495016731909</v>
+        <v>239.7070818993417</v>
       </c>
       <c r="H104">
-        <v>265.8167472839356</v>
+        <v>238.5301559448242</v>
       </c>
       <c r="I104">
-        <v>259.1822992960612</v>
+        <v>242.586203511556</v>
       </c>
       <c r="L104">
-        <v>38.84883574358188</v>
+        <v>47.49918514595205</v>
       </c>
       <c r="M104">
-        <v>45.12517196690473</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>43.33783129905879</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>254.2372589111328</v>
+        <v>238.1990203857422</v>
       </c>
       <c r="C105">
-        <v>258.554931640625</v>
+        <v>239.7688751220703</v>
       </c>
       <c r="D105">
-        <v>252.9396057128907</v>
+        <v>238.1990203857422</v>
       </c>
       <c r="E105">
-        <v>256.0139465332031</v>
+        <v>238.884506225586</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>91680</v>
       </c>
       <c r="G105">
-        <v>260.2280875695557</v>
+        <v>239.6323022926367</v>
       </c>
       <c r="H105">
-        <v>266.2365402221679</v>
+        <v>238.3582489013672</v>
       </c>
       <c r="I105">
-        <v>259.4278762817383</v>
+        <v>242.2015513102214</v>
       </c>
       <c r="L105">
-        <v>42.16160995482851</v>
+        <v>50.66693412613652</v>
       </c>
       <c r="M105">
-        <v>46.88629180051653</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>45.04513945357105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>256.1566467285156</v>
+        <v>238.9058074951172</v>
       </c>
       <c r="C106">
-        <v>256.8468017578125</v>
+        <v>241.7236633300781</v>
       </c>
       <c r="D106">
-        <v>253.3949279785156</v>
+        <v>238.8403625488281</v>
       </c>
       <c r="E106">
-        <v>255.1552429199219</v>
+        <v>241.1397094726562</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>4280448</v>
       </c>
       <c r="G106">
-        <v>259.7669198741344</v>
+        <v>239.7693393090021</v>
       </c>
       <c r="H106">
-        <v>266.2820739746094</v>
+        <v>238.2408706665039</v>
       </c>
       <c r="I106">
-        <v>259.6043716430664</v>
+        <v>241.8167592366536</v>
       </c>
       <c r="L106">
-        <v>40.95748801885345</v>
+        <v>59.74443633554715</v>
       </c>
       <c r="M106">
-        <v>46.11740430041533</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>50.39266107433814</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>255.1507415771484</v>
+        <v>241.1365356445312</v>
       </c>
       <c r="C107">
-        <v>257.3870544433594</v>
+        <v>241.1365356445312</v>
       </c>
       <c r="D107">
-        <v>253.9615783691407</v>
+        <v>238.4771423339844</v>
       </c>
       <c r="E107">
-        <v>256.1330871582031</v>
+        <v>240.2146453857422</v>
       </c>
       <c r="F107">
-        <v>7550992</v>
+        <v>2180960</v>
       </c>
       <c r="G107">
-        <v>259.4365714454134</v>
+        <v>239.8098216796148</v>
       </c>
       <c r="H107">
-        <v>266.2234039306641</v>
+        <v>238.0481964111328</v>
       </c>
       <c r="I107">
-        <v>259.7950658162435</v>
+        <v>241.4508163452148</v>
       </c>
       <c r="L107">
-        <v>43.04145614969971</v>
+        <v>55.06848441995376</v>
       </c>
       <c r="M107">
-        <v>47.1796602662548</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>48.31580466091285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>256.1240539550781</v>
+        <v>240.1770172119141</v>
       </c>
       <c r="C108">
-        <v>256.9681701660156</v>
+        <v>240.2148284912109</v>
       </c>
       <c r="D108">
-        <v>253.2196807861328</v>
+        <v>239.3020935058593</v>
       </c>
       <c r="E108">
-        <v>254.3663940429688</v>
+        <v>239.3021850585937</v>
       </c>
       <c r="F108">
-        <v>245488</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>258.9756462270093</v>
+        <v>239.7636728958856</v>
       </c>
       <c r="H108">
-        <v>266.2726852416992</v>
+        <v>237.9033416748047</v>
       </c>
       <c r="I108">
-        <v>259.9978057861328</v>
+        <v>241.0115244547526</v>
       </c>
       <c r="L108">
-        <v>40.16029779153872</v>
+        <v>50.66799501307711</v>
       </c>
       <c r="M108">
-        <v>45.43679243527031</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>46.2893042964936</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>254.3595123291016</v>
+        <v>239.2988739013672</v>
       </c>
       <c r="C109">
-        <v>254.5964508056641</v>
+        <v>242.4431915283203</v>
       </c>
       <c r="D109">
-        <v>249.5138397216797</v>
+        <v>239.2960052490234</v>
       </c>
       <c r="E109">
-        <v>249.6975402832031</v>
+        <v>240.5709228515625</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>7131040</v>
       </c>
       <c r="G109">
-        <v>258.1321820502997</v>
+        <v>239.8370592554926</v>
       </c>
       <c r="H109">
-        <v>265.2682815551758</v>
+        <v>237.7497985839844</v>
       </c>
       <c r="I109">
-        <v>260.1087193806966</v>
+        <v>240.5771413167318</v>
       </c>
       <c r="L109">
-        <v>33.49445885300841</v>
+        <v>56.14930927987047</v>
       </c>
       <c r="M109">
-        <v>41.11428071784333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>49.46330401336611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>249.7064666748047</v>
+        <v>240.54833984375</v>
       </c>
       <c r="C110">
-        <v>251.8972778320312</v>
+        <v>240.5892944335937</v>
       </c>
       <c r="D110">
-        <v>245.6628570556641</v>
+        <v>239.5495300292969</v>
       </c>
       <c r="E110">
-        <v>246.0026397705078</v>
+        <v>239.7961730957031</v>
       </c>
       <c r="F110">
-        <v>10634000</v>
+        <v>1182000</v>
       </c>
       <c r="G110">
-        <v>257.0294963885004</v>
+        <v>239.8333423318754</v>
       </c>
       <c r="H110">
-        <v>263.8558403015137</v>
+        <v>237.703604888916</v>
       </c>
       <c r="I110">
-        <v>260.1361607869466</v>
+        <v>240.1264297485351</v>
       </c>
       <c r="L110">
-        <v>29.18206072307031</v>
+        <v>52.16735007542999</v>
       </c>
       <c r="M110">
-        <v>38.0308006574699</v>
-      </c>
-      <c r="N110" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>47.61298845063113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>245.9675445556641</v>
+        <v>239.8046569824219</v>
       </c>
       <c r="C111">
-        <v>254.0894775390625</v>
+        <v>239.9340209960937</v>
       </c>
       <c r="D111">
-        <v>245.7116241455078</v>
+        <v>236.9126434326172</v>
       </c>
       <c r="E111">
-        <v>253.1558990478516</v>
+        <v>236.9126434326172</v>
       </c>
       <c r="F111">
-        <v>2465232</v>
+        <v>42656</v>
       </c>
       <c r="G111">
-        <v>256.6773511757142</v>
+        <v>239.5678242501246</v>
       </c>
       <c r="H111">
-        <v>262.5549926757812</v>
+        <v>237.4565132141113</v>
       </c>
       <c r="I111">
-        <v>260.3763626098633</v>
+        <v>239.64918162028</v>
       </c>
       <c r="L111">
-        <v>44.6913718970704</v>
+        <v>40.22342789864599</v>
       </c>
       <c r="M111">
-        <v>46.41026000591702</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>41.40484801693579</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>253.1598815917969</v>
+        <v>236.9600982666016</v>
       </c>
       <c r="C112">
-        <v>253.9587097167969</v>
+        <v>237.908218383789</v>
       </c>
       <c r="D112">
-        <v>250.3368835449219</v>
+        <v>234.2367248535156</v>
       </c>
       <c r="E112">
-        <v>251.2097778320312</v>
+        <v>235.0067138671875</v>
       </c>
       <c r="F112">
-        <v>519888</v>
+        <v>6370512</v>
       </c>
       <c r="G112">
-        <v>256.1802990535612</v>
+        <v>239.1531778516758</v>
       </c>
       <c r="H112">
-        <v>261.2893630981445</v>
+        <v>237.4165962219238</v>
       </c>
       <c r="I112">
-        <v>260.6465143839518</v>
+        <v>239.1553487141927</v>
       </c>
       <c r="L112">
-        <v>41.88390385489744</v>
+        <v>34.37169972917952</v>
       </c>
       <c r="M112">
-        <v>44.64165439648115</v>
+        <v>37.88836100849501</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -4683,34 +4668,34 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>251.2097320556641</v>
+        <v>234.9821929931641</v>
       </c>
       <c r="C113">
-        <v>256.0858154296875</v>
+        <v>236.4215545654297</v>
       </c>
       <c r="D113">
-        <v>251.1529083251953</v>
+        <v>234.1744384765625</v>
       </c>
       <c r="E113">
-        <v>256.0858154296875</v>
+        <v>234.5806274414062</v>
       </c>
       <c r="F113">
-        <v>12795376</v>
+        <v>7184272</v>
       </c>
       <c r="G113">
-        <v>256.171709633209</v>
+        <v>238.7374914507422</v>
       </c>
       <c r="H113">
-        <v>259.4339401245117</v>
+        <v>237.2738983154297</v>
       </c>
       <c r="I113">
-        <v>261.1314905802409</v>
+        <v>238.7621348063151</v>
       </c>
       <c r="L113">
-        <v>50.62640274673048</v>
+        <v>33.15847032873486</v>
       </c>
       <c r="M113">
-        <v>49.80314721412837</v>
+        <v>37.12917420976854</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -4718,34 +4703,34 @@
         <v>126</v>
       </c>
       <c r="B114">
-        <v>255.9795837402344</v>
+        <v>234.577392578125</v>
       </c>
       <c r="C114">
-        <v>257.3055725097656</v>
+        <v>240.3723907470703</v>
       </c>
       <c r="D114">
-        <v>248.5346221923828</v>
+        <v>231.201904296875</v>
       </c>
       <c r="E114">
-        <v>248.9246673583984</v>
+        <v>233.7939910888672</v>
       </c>
       <c r="F114">
-        <v>15521360</v>
+        <v>53161248</v>
       </c>
       <c r="G114">
-        <v>255.5128876082263</v>
+        <v>238.2880823269354</v>
       </c>
       <c r="H114">
-        <v>257.2854637145996</v>
+        <v>237.2611618041992</v>
       </c>
       <c r="I114">
-        <v>261.4359985351563</v>
+        <v>238.3601745605469</v>
       </c>
       <c r="L114">
-        <v>40.54827858546461</v>
+        <v>30.89361977536823</v>
       </c>
       <c r="M114">
-        <v>43.4027135767892</v>
+        <v>35.70667121120491</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -4753,34 +4738,34 @@
         <v>127</v>
       </c>
       <c r="B115">
-        <v>248.9223327636719</v>
+        <v>233.7574920654297</v>
       </c>
       <c r="C115">
-        <v>253.2238922119141</v>
+        <v>235.289291381836</v>
       </c>
       <c r="D115">
-        <v>248.7325897216797</v>
+        <v>231.2117156982422</v>
       </c>
       <c r="E115">
-        <v>252.01708984375</v>
+        <v>234.7287902832031</v>
       </c>
       <c r="F115">
-        <v>1145328</v>
+        <v>21802864</v>
       </c>
       <c r="G115">
-        <v>255.1950878114557</v>
+        <v>237.9645103229597</v>
       </c>
       <c r="H115">
-        <v>255.7741111755371</v>
+        <v>237.1742324829102</v>
       </c>
       <c r="I115">
-        <v>261.5826319376628</v>
+        <v>238.1070460001628</v>
       </c>
       <c r="L115">
-        <v>45.79084524858769</v>
+        <v>36.67604388380121</v>
       </c>
       <c r="M115">
-        <v>46.59453901152195</v>
+        <v>38.71167255371989</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -4788,34 +4773,34 @@
         <v>128</v>
       </c>
       <c r="B116">
-        <v>252.01708984375</v>
+        <v>234.7555389404297</v>
       </c>
       <c r="C116">
-        <v>252.9002838134766</v>
+        <v>235.5213928222656</v>
       </c>
       <c r="D116">
-        <v>248.4837341308593</v>
+        <v>231.69677734375</v>
       </c>
       <c r="E116">
-        <v>250.424072265625</v>
+        <v>233.9093475341797</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>20065424</v>
       </c>
       <c r="G116">
-        <v>254.7613591254711</v>
+        <v>237.5958591603433</v>
       </c>
       <c r="H116">
-        <v>254.5930473327637</v>
+        <v>237.0213104248047</v>
       </c>
       <c r="I116">
-        <v>261.4552820841471</v>
+        <v>237.7877817789714</v>
       </c>
       <c r="L116">
-        <v>43.56452918249138</v>
+        <v>33.88033288708963</v>
       </c>
       <c r="M116">
-        <v>45.18100634034864</v>
+        <v>37.07578270598482</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -4823,34 +4808,34 @@
         <v>129</v>
       </c>
       <c r="B117">
-        <v>250.3768920898437</v>
+        <v>234.0412750244141</v>
       </c>
       <c r="C117">
-        <v>255.0100250244141</v>
+        <v>236.410659790039</v>
       </c>
       <c r="D117">
-        <v>249.2922515869141</v>
+        <v>233.0652923583984</v>
       </c>
       <c r="E117">
-        <v>252.6834716796875</v>
+        <v>234.7555236816407</v>
       </c>
       <c r="F117">
-        <v>13283280</v>
+        <v>18807056</v>
       </c>
       <c r="G117">
-        <v>254.5724602667635</v>
+        <v>237.3376468440976</v>
       </c>
       <c r="H117">
-        <v>253.9781929016113</v>
+        <v>237.0517372131348</v>
       </c>
       <c r="I117">
-        <v>261.3011815388998</v>
+        <v>237.4773615519206</v>
       </c>
       <c r="L117">
-        <v>47.62743687339706</v>
+        <v>39.25913364998078</v>
       </c>
       <c r="M117">
-        <v>47.60866393568835</v>
+        <v>39.90009522579459</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -4858,34 +4843,34 @@
         <v>130</v>
       </c>
       <c r="B118">
-        <v>252.9160919189453</v>
+        <v>235.0138702392578</v>
       </c>
       <c r="C118">
-        <v>254.9958648681641</v>
+        <v>237.4127197265625</v>
       </c>
       <c r="D118">
-        <v>250.3560028076172</v>
+        <v>234.6156158447266</v>
       </c>
       <c r="E118">
-        <v>251.1929321289062</v>
+        <v>234.8632507324219</v>
       </c>
       <c r="F118">
-        <v>9313216</v>
+        <v>5854400</v>
       </c>
       <c r="G118">
-        <v>254.2652304360492</v>
+        <v>237.1127017430362</v>
       </c>
       <c r="H118">
-        <v>253.5651618957519</v>
+        <v>237.0136283874512</v>
       </c>
       <c r="I118">
-        <v>261.2282536824544</v>
+        <v>237.2328272501628</v>
       </c>
       <c r="L118">
-        <v>45.21175794234296</v>
+        <v>39.95868804058505</v>
       </c>
       <c r="M118">
-        <v>46.15647156315865</v>
+        <v>40.26767619167765</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -4893,34 +4878,34 @@
         <v>131</v>
       </c>
       <c r="B119">
-        <v>251.1741638183593</v>
+        <v>234.8524627685547</v>
       </c>
       <c r="C119">
-        <v>254.6777191162109</v>
+        <v>235.6635589599609</v>
       </c>
       <c r="D119">
-        <v>251.1741638183593</v>
+        <v>232.4159851074219</v>
       </c>
       <c r="E119">
-        <v>252.4809417724609</v>
+        <v>232.6183013916016</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>3844464</v>
       </c>
       <c r="G119">
-        <v>254.103022375723</v>
+        <v>236.7041198929057</v>
       </c>
       <c r="H119">
-        <v>253.2665100097656</v>
+        <v>236.8249572753906</v>
       </c>
       <c r="I119">
-        <v>260.6514312744141</v>
+        <v>236.8653778076172</v>
       </c>
       <c r="L119">
-        <v>47.78626956580386</v>
+        <v>31.46336388255087</v>
       </c>
       <c r="M119">
-        <v>47.64266714597486</v>
+        <v>35.40760884120262</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -4928,34 +4913,37 @@
         <v>132</v>
       </c>
       <c r="B120">
-        <v>252.4866790771484</v>
+        <v>232.641128540039</v>
       </c>
       <c r="C120">
-        <v>254.4708099365234</v>
+        <v>233.5256805419922</v>
       </c>
       <c r="D120">
-        <v>249.4595184326172</v>
+        <v>223.7470245361328</v>
       </c>
       <c r="E120">
-        <v>253.6024169921875</v>
+        <v>223.9528503417969</v>
       </c>
       <c r="F120">
-        <v>3236016</v>
+        <v>12360736</v>
       </c>
       <c r="G120">
-        <v>254.0575127954016</v>
+        <v>235.5449135700776</v>
       </c>
       <c r="H120">
-        <v>252.927490234375</v>
+        <v>236.2025863647461</v>
       </c>
       <c r="I120">
-        <v>259.963129679362</v>
+        <v>236.3064712524414</v>
       </c>
       <c r="L120">
-        <v>50.08385474189365</v>
+        <v>16.35971974538411</v>
       </c>
       <c r="M120">
-        <v>48.96359109133935</v>
+        <v>23.57815217098302</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -4963,34 +4951,37 @@
         <v>133</v>
       </c>
       <c r="B121">
-        <v>253.6127014160156</v>
+        <v>224.0044403076172</v>
       </c>
       <c r="C121">
-        <v>254.6252746582031</v>
+        <v>227.586181640625</v>
       </c>
       <c r="D121">
-        <v>251.6678314208984</v>
+        <v>219.3202362060547</v>
       </c>
       <c r="E121">
-        <v>253.3175201416016</v>
+        <v>226.6924591064453</v>
       </c>
       <c r="F121">
-        <v>540960</v>
+        <v>7704320</v>
       </c>
       <c r="G121">
-        <v>253.9902407359652</v>
+        <v>234.7401449824747</v>
       </c>
       <c r="H121">
-        <v>252.8023994445801</v>
+        <v>235.7161804199219</v>
       </c>
       <c r="I121">
-        <v>259.1012852986653</v>
+        <v>235.8010706583659</v>
       </c>
       <c r="L121">
-        <v>49.46183013074989</v>
+        <v>28.55755579746463</v>
       </c>
       <c r="M121">
-        <v>48.62795477031678</v>
+        <v>31.38328306661685</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -4998,34 +4989,37 @@
         <v>134</v>
       </c>
       <c r="B122">
-        <v>253.3288116455078</v>
+        <v>226.7594757080078</v>
       </c>
       <c r="C122">
-        <v>256.1964721679688</v>
+        <v>228.2986450195312</v>
       </c>
       <c r="D122">
-        <v>251.2300872802734</v>
+        <v>224.2872161865234</v>
       </c>
       <c r="E122">
-        <v>251.2300872802734</v>
+        <v>224.5914611816407</v>
       </c>
       <c r="F122">
-        <v>11307040</v>
+        <v>1206080</v>
       </c>
       <c r="G122">
-        <v>253.7393176945386</v>
+        <v>233.817537364217</v>
       </c>
       <c r="H122">
-        <v>252.597883605957</v>
+        <v>235.115625</v>
       </c>
       <c r="I122">
-        <v>258.2582092285156</v>
+        <v>235.4272842407227</v>
       </c>
       <c r="L122">
-        <v>44.86848942606345</v>
+        <v>25.36595784492014</v>
       </c>
       <c r="M122">
-        <v>46.13270425435363</v>
+        <v>28.94202687029935</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5033,34 +5027,34 @@
         <v>135</v>
       </c>
       <c r="B123">
-        <v>251.1553192138672</v>
+        <v>224.5603179931641</v>
       </c>
       <c r="C123">
-        <v>251.28369140625</v>
+        <v>230.330810546875</v>
       </c>
       <c r="D123">
-        <v>249.7796020507812</v>
+        <v>223.7773132324219</v>
       </c>
       <c r="E123">
-        <v>249.8217010498047</v>
+        <v>229.6024932861328</v>
       </c>
       <c r="F123">
-        <v>10592176</v>
+        <v>4103424</v>
       </c>
       <c r="G123">
-        <v>253.3831707268355</v>
+        <v>233.4343515389367</v>
       </c>
       <c r="H123">
-        <v>252.3874542236328</v>
+        <v>234.706111907959</v>
       </c>
       <c r="I123">
-        <v>256.8124567667643</v>
+        <v>235.1662144978841</v>
       </c>
       <c r="L123">
-        <v>41.91401954754174</v>
+        <v>42.58370703411369</v>
       </c>
       <c r="M123">
-        <v>44.47451790047159</v>
+        <v>40.7752820681874</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5068,34 +5062,34 @@
         <v>136</v>
       </c>
       <c r="B124">
-        <v>249.8244323730469</v>
+        <v>229.5428314208984</v>
       </c>
       <c r="C124">
-        <v>250.288818359375</v>
+        <v>234.9158325195312</v>
       </c>
       <c r="D124">
-        <v>246.360855102539</v>
+        <v>228.564193725586</v>
       </c>
       <c r="E124">
-        <v>246.3770446777344</v>
+        <v>231.8308563232422</v>
       </c>
       <c r="F124">
-        <v>4628400</v>
+        <v>14874592</v>
       </c>
       <c r="G124">
-        <v>252.7462501769172</v>
+        <v>233.2885792466008</v>
       </c>
       <c r="H124">
-        <v>251.9946144104004</v>
+        <v>234.3873725891113</v>
       </c>
       <c r="I124">
-        <v>255.2952184041341</v>
+        <v>235.0922856648763</v>
       </c>
       <c r="L124">
-        <v>35.48481403665201</v>
+        <v>48.52458404499193</v>
       </c>
       <c r="M124">
-        <v>40.62807340842249</v>
+        <v>45.14964023766406</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5103,34 +5097,34 @@
         <v>137</v>
       </c>
       <c r="B125">
-        <v>246.3821105957031</v>
+        <v>231.8241271972656</v>
       </c>
       <c r="C125">
-        <v>248.8435516357422</v>
+        <v>234.7996673583984</v>
       </c>
       <c r="D125">
-        <v>245.8074493408203</v>
+        <v>231.6307373046875</v>
       </c>
       <c r="E125">
-        <v>245.8527984619141</v>
+        <v>234.7996673583984</v>
       </c>
       <c r="F125">
-        <v>10597712</v>
+        <v>4815328</v>
       </c>
       <c r="G125">
-        <v>252.1195727482806</v>
+        <v>233.4259508931278</v>
       </c>
       <c r="H125">
-        <v>251.4865570068359</v>
+        <v>234.183130645752</v>
       </c>
       <c r="I125">
-        <v>254.0821736653646</v>
+        <v>235.0366953531901</v>
       </c>
       <c r="L125">
-        <v>34.57673448989809</v>
+        <v>55.43574758573205</v>
       </c>
       <c r="M125">
-        <v>40.06022077790299</v>
+        <v>50.40530718966468</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5138,37 +5132,34 @@
         <v>138</v>
       </c>
       <c r="B126">
-        <v>245.8526000976562</v>
+        <v>234.7974395751953</v>
       </c>
       <c r="C126">
-        <v>246.3096160888672</v>
+        <v>237.9470672607422</v>
       </c>
       <c r="D126">
-        <v>242.0829010009766</v>
+        <v>234.5218811035156</v>
       </c>
       <c r="E126">
-        <v>242.3226470947266</v>
+        <v>236.4335784912109</v>
       </c>
       <c r="F126">
-        <v>10010096</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>251.2289431434121</v>
+        <v>233.6993715838627</v>
       </c>
       <c r="H126">
-        <v>250.8449272155762</v>
+        <v>233.9478240966797</v>
       </c>
       <c r="I126">
-        <v>253.0247502644857</v>
+        <v>235.0188883463542</v>
       </c>
       <c r="L126">
-        <v>28.96209495693164</v>
+        <v>58.85598587341913</v>
       </c>
       <c r="M126">
-        <v>36.37352338374453</v>
-      </c>
-      <c r="N126" t="s">
-        <v>195</v>
+        <v>53.07047799006127</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5176,34 +5167,34 @@
         <v>139</v>
       </c>
       <c r="B127">
-        <v>242.308349609375</v>
+        <v>236.4449920654297</v>
       </c>
       <c r="C127">
-        <v>243.9250793457031</v>
+        <v>237.1786651611328</v>
       </c>
       <c r="D127">
-        <v>241.4932556152344</v>
+        <v>234.4195861816407</v>
       </c>
       <c r="E127">
-        <v>243.4872741699219</v>
+        <v>235.292724609375</v>
       </c>
       <c r="F127">
-        <v>13499888</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>250.5251550549129</v>
+        <v>233.8442218589092</v>
       </c>
       <c r="H127">
-        <v>250.2126365661621</v>
+        <v>233.7017280578613</v>
       </c>
       <c r="I127">
-        <v>252.3083073933919</v>
+        <v>235.0570795694987</v>
       </c>
       <c r="L127">
-        <v>33.0000235218961</v>
+        <v>55.50948420523446</v>
       </c>
       <c r="M127">
-        <v>38.38802455979389</v>
+        <v>51.00925444937094</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5211,600 +5202,600 @@
         <v>140</v>
       </c>
       <c r="B128">
-        <v>243.4680633544922</v>
+        <v>235.3141784667969</v>
       </c>
       <c r="C128">
-        <v>244.7295532226562</v>
+        <v>236.8769836425781</v>
       </c>
       <c r="D128">
-        <v>243.1964263916016</v>
+        <v>234.8450012207031</v>
       </c>
       <c r="E128">
-        <v>244.0681304931641</v>
+        <v>235.5690307617188</v>
       </c>
       <c r="F128">
-        <v>483472</v>
+        <v>115808</v>
       </c>
       <c r="G128">
-        <v>249.9381528220267</v>
+        <v>234.0010226682556</v>
       </c>
       <c r="H128">
-        <v>249.6977233886719</v>
+        <v>233.5150703430176</v>
       </c>
       <c r="I128">
-        <v>251.7954600016276</v>
+        <v>235.0551996866862</v>
       </c>
       <c r="L128">
-        <v>35.07084471356609</v>
+        <v>56.18822554823464</v>
       </c>
       <c r="M128">
-        <v>39.41826333688974</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>51.50056264530765</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>244.0533905029297</v>
+        <v>235.6334228515625</v>
       </c>
       <c r="C129">
-        <v>244.616943359375</v>
+        <v>236.6427001953125</v>
       </c>
       <c r="D129">
-        <v>241.6667633056641</v>
+        <v>234.9675903320312</v>
       </c>
       <c r="E129">
-        <v>242.1992797851562</v>
+        <v>236.3714447021484</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>249.2346189095839</v>
+        <v>234.2165155804277</v>
       </c>
       <c r="H129">
-        <v>249.3228103637695</v>
+        <v>233.3050964355469</v>
       </c>
       <c r="I129">
-        <v>251.2536366780599</v>
+        <v>235.0545237223307</v>
       </c>
       <c r="L129">
-        <v>31.54212393582203</v>
+        <v>58.2682292507854</v>
       </c>
       <c r="M129">
-        <v>37.25952199417894</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>52.97544456632271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>242.1992797851562</v>
+        <v>236.3611755371093</v>
       </c>
       <c r="C130">
-        <v>244.1159362792969</v>
+        <v>237.0585784912109</v>
       </c>
       <c r="D130">
-        <v>242.1174926757812</v>
+        <v>234.8176422119141</v>
       </c>
       <c r="E130">
-        <v>243.6417846679688</v>
+        <v>235.5000762939453</v>
       </c>
       <c r="F130">
-        <v>252608</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>248.7261794330734</v>
+        <v>234.3332029180202</v>
       </c>
       <c r="H130">
-        <v>249.2047676086426</v>
+        <v>233.090291595459</v>
       </c>
       <c r="I130">
-        <v>250.6956024169922</v>
+        <v>235.0245173136393</v>
       </c>
       <c r="L130">
-        <v>37.04274884032482</v>
+        <v>55.07393277273474</v>
       </c>
       <c r="M130">
-        <v>39.9912958046591</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>51.15613620536785</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>243.6578216552734</v>
+        <v>235.4984130859375</v>
       </c>
       <c r="C131">
-        <v>244.0219268798828</v>
+        <v>236.6905517578125</v>
       </c>
       <c r="D131">
-        <v>239.5846252441407</v>
+        <v>234.7041473388672</v>
       </c>
       <c r="E131">
-        <v>240.7200469970703</v>
+        <v>236.3782501220703</v>
       </c>
       <c r="F131">
-        <v>1540864</v>
+        <v>12056768</v>
       </c>
       <c r="G131">
-        <v>247.9983492116186</v>
+        <v>234.5191163002065</v>
       </c>
       <c r="H131">
-        <v>248.5829750061035</v>
+        <v>233.0635719299316</v>
       </c>
       <c r="I131">
-        <v>250.1922927856445</v>
+        <v>235.0231063842774</v>
       </c>
       <c r="L131">
-        <v>31.3101649800335</v>
+        <v>57.70290013748797</v>
       </c>
       <c r="M131">
-        <v>36.52259272518462</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>52.91127708034929</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>240.7484588623047</v>
+        <v>236.384506225586</v>
       </c>
       <c r="C132">
-        <v>242.1481475830078</v>
+        <v>237.1844177246093</v>
       </c>
       <c r="D132">
-        <v>239.1082458496093</v>
+        <v>235.6177978515625</v>
       </c>
       <c r="E132">
-        <v>241.8544769287109</v>
+        <v>236.6140594482422</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>247.4398153677179</v>
+        <v>234.7095656773007</v>
       </c>
       <c r="H132">
-        <v>248.1152099609375</v>
+        <v>233.1439392089844</v>
       </c>
       <c r="I132">
-        <v>249.7434285481771</v>
+        <v>235.0234893798828</v>
       </c>
       <c r="L132">
-        <v>35.65947897373363</v>
+        <v>58.43761739030093</v>
       </c>
       <c r="M132">
-        <v>38.74421341080431</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>53.39555479266699</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>241.8531951904297</v>
+        <v>236.6061706542969</v>
       </c>
       <c r="C133">
-        <v>241.8772277832031</v>
+        <v>237.9268188476562</v>
       </c>
       <c r="D133">
-        <v>233.8459167480469</v>
+        <v>234.9653015136719</v>
       </c>
       <c r="E133">
-        <v>235.8050537109375</v>
+        <v>235.377685546875</v>
       </c>
       <c r="F133">
-        <v>15834688</v>
+        <v>6975152</v>
       </c>
       <c r="G133">
-        <v>246.382109762556</v>
+        <v>234.770303847262</v>
       </c>
       <c r="H133">
-        <v>247.101171875</v>
+        <v>233.1837921142578</v>
       </c>
       <c r="I133">
-        <v>249.135920715332</v>
+        <v>234.9429870605469</v>
       </c>
       <c r="L133">
-        <v>25.84292972021339</v>
+        <v>53.00660253578368</v>
       </c>
       <c r="M133">
-        <v>32.26026393084077</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>50.46505397372634</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>235.7826232910156</v>
+        <v>235.3549194335937</v>
       </c>
       <c r="C134">
-        <v>237.6683349609375</v>
+        <v>237.8931884765625</v>
       </c>
       <c r="D134">
-        <v>234.7440795898437</v>
+        <v>234.7816162109375</v>
       </c>
       <c r="E134">
-        <v>237.434585571289</v>
+        <v>237.2588958740234</v>
       </c>
       <c r="F134">
-        <v>11260672</v>
+        <v>3415136</v>
       </c>
       <c r="G134">
-        <v>245.5686984724409</v>
+        <v>234.9965394860585</v>
       </c>
       <c r="H134">
-        <v>246.5266677856445</v>
+        <v>233.3570373535156</v>
       </c>
       <c r="I134">
-        <v>248.5759455362956</v>
+        <v>234.9114288330078</v>
       </c>
       <c r="L134">
-        <v>31.55297852924057</v>
+        <v>59.45646110517067</v>
       </c>
       <c r="M134">
-        <v>35.39659398860213</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>54.55221435877046</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>237.4286041259766</v>
+        <v>237.2872619628907</v>
       </c>
       <c r="C135">
-        <v>237.7254486083984</v>
+        <v>237.8985443115234</v>
       </c>
       <c r="D135">
-        <v>231.8968658447266</v>
+        <v>236.6898651123047</v>
       </c>
       <c r="E135">
-        <v>234.0487213134766</v>
+        <v>236.8008575439453</v>
       </c>
       <c r="F135">
-        <v>11641168</v>
+        <v>1977696</v>
       </c>
       <c r="G135">
-        <v>244.5214278216259</v>
+        <v>235.1605684004118</v>
       </c>
       <c r="H135">
-        <v>245.6282493591308</v>
+        <v>233.4606407165527</v>
       </c>
       <c r="I135">
-        <v>247.8437713623047</v>
+        <v>234.8419738769531</v>
       </c>
       <c r="L135">
-        <v>26.74005687123651</v>
+        <v>57.30218425205795</v>
       </c>
       <c r="M135">
-        <v>32.07368470004105</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>53.39696506520303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>234.0572204589844</v>
+        <v>236.7595977783203</v>
       </c>
       <c r="C136">
-        <v>237.3827972412109</v>
+        <v>237.2588348388672</v>
       </c>
       <c r="D136">
-        <v>234.0572204589844</v>
+        <v>234.9506072998047</v>
       </c>
       <c r="E136">
-        <v>236.4673767089844</v>
+        <v>236.245132446289</v>
       </c>
       <c r="F136">
-        <v>2541584</v>
+        <v>3164432</v>
       </c>
       <c r="G136">
-        <v>243.7892413568403</v>
+        <v>235.2591651318552</v>
       </c>
       <c r="H136">
-        <v>244.9304145812988</v>
+        <v>233.5774299621582</v>
       </c>
       <c r="I136">
-        <v>247.2208424886068</v>
+        <v>234.6788213094075</v>
       </c>
       <c r="L136">
-        <v>34.73976331072483</v>
+        <v>54.60183221363454</v>
       </c>
       <c r="M136">
-        <v>36.64878967986903</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>51.9592620820575</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>236.472412109375</v>
+        <v>236.2452087402344</v>
       </c>
       <c r="C137">
-        <v>237.7614288330078</v>
+        <v>236.298843383789</v>
       </c>
       <c r="D137">
-        <v>236.4416656494141</v>
+        <v>234.6746673583984</v>
       </c>
       <c r="E137">
-        <v>236.967788696289</v>
+        <v>234.9749755859375</v>
       </c>
       <c r="F137">
-        <v>1797424</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>243.1691092967902</v>
+        <v>235.2333297185899</v>
       </c>
       <c r="H137">
-        <v>244.1446304321289</v>
+        <v>233.5884025573731</v>
       </c>
       <c r="I137">
-        <v>246.581999206543</v>
+        <v>234.5041656494141</v>
       </c>
       <c r="L137">
-        <v>36.35732964064236</v>
+        <v>48.70071287740647</v>
       </c>
       <c r="M137">
-        <v>37.58546088082651</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>48.72980648428196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>236.970932006836</v>
+        <v>234.9593658447266</v>
       </c>
       <c r="C138">
-        <v>236.9925842285156</v>
+        <v>240.4254150390625</v>
       </c>
       <c r="D138">
-        <v>233.0323791503907</v>
+        <v>234.9593658447266</v>
       </c>
       <c r="E138">
-        <v>234.146987915039</v>
+        <v>239.7972564697266</v>
       </c>
       <c r="F138">
-        <v>6968704</v>
+        <v>9087776</v>
       </c>
       <c r="G138">
-        <v>242.3489164439037</v>
+        <v>235.6482321505114</v>
       </c>
       <c r="H138">
-        <v>243.2923332214355</v>
+        <v>233.8351028442383</v>
       </c>
       <c r="I138">
-        <v>245.9080190022786</v>
+        <v>234.5206680297852</v>
       </c>
       <c r="L138">
-        <v>31.41877429431933</v>
+        <v>64.90219651607228</v>
       </c>
       <c r="M138">
-        <v>34.48980692072526</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>59.11873002562465</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>234.1272277832031</v>
+        <v>239.7962646484375</v>
       </c>
       <c r="C139">
-        <v>235.907455444336</v>
+        <v>240.7271881103516</v>
       </c>
       <c r="D139">
-        <v>227.33447265625</v>
+        <v>239.1880340576172</v>
       </c>
       <c r="E139">
-        <v>235.6254272460937</v>
+        <v>240.0188446044922</v>
       </c>
       <c r="F139">
-        <v>10389168</v>
+        <v>1176240</v>
       </c>
       <c r="G139">
-        <v>241.7376901531937</v>
+        <v>236.0455605554188</v>
       </c>
       <c r="H139">
-        <v>242.4495574951172</v>
+        <v>234.2051300048828</v>
       </c>
       <c r="I139">
-        <v>245.4389485677083</v>
+        <v>234.5022654215495</v>
       </c>
       <c r="L139">
-        <v>36.50430025760794</v>
+        <v>65.46601163309342</v>
       </c>
       <c r="M139">
-        <v>37.40000533744049</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>59.52458936014174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>235.6307678222656</v>
+        <v>240.0185241699219</v>
       </c>
       <c r="C140">
-        <v>236.8053588867188</v>
+        <v>242.7001953125</v>
       </c>
       <c r="D140">
-        <v>234.99609375</v>
+        <v>239.9956359863281</v>
       </c>
       <c r="E140">
-        <v>236.3917236328125</v>
+        <v>241.8648071289062</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>4564416</v>
       </c>
       <c r="G140">
-        <v>241.2516931967954</v>
+        <v>236.5745829711904</v>
       </c>
       <c r="H140">
-        <v>241.5890228271484</v>
+        <v>235.1007278442383</v>
       </c>
       <c r="I140">
-        <v>245.1185846964518</v>
+        <v>234.5712198893229</v>
       </c>
       <c r="L140">
-        <v>39.1360033615914</v>
+        <v>69.98484447709608</v>
       </c>
       <c r="M140">
-        <v>38.9147111977631</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>62.8347514700603</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>236.4375</v>
+        <v>241.8712768554688</v>
       </c>
       <c r="C141">
-        <v>237.7420806884766</v>
+        <v>242.2272644042969</v>
       </c>
       <c r="D141">
-        <v>235.4219818115234</v>
+        <v>240.4837493896484</v>
       </c>
       <c r="E141">
-        <v>236.4002685546875</v>
+        <v>241.9927520751953</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>3633168</v>
       </c>
       <c r="G141">
-        <v>240.8106545929674</v>
+        <v>237.0671437988272</v>
       </c>
       <c r="H141">
-        <v>240.7431602478027</v>
+        <v>235.8657424926758</v>
       </c>
       <c r="I141">
-        <v>244.560063680013</v>
+        <v>234.7405568440755</v>
       </c>
       <c r="L141">
-        <v>39.16763277495472</v>
+        <v>70.28799911470003</v>
       </c>
       <c r="M141">
-        <v>38.93245556302084</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>63.06024647842481</v>
+      </c>
+      <c r="O141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>236.4028778076172</v>
+        <v>241.9708404541016</v>
       </c>
       <c r="C142">
-        <v>237.0564422607422</v>
+        <v>244.2996826171875</v>
       </c>
       <c r="D142">
-        <v>235.8448791503907</v>
+        <v>241.7747192382812</v>
       </c>
       <c r="E142">
-        <v>236.4205780029297</v>
+        <v>243.0793914794922</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>17733536</v>
       </c>
       <c r="G142">
-        <v>240.4115567211458</v>
+        <v>237.6137117697967</v>
       </c>
       <c r="H142">
-        <v>240.0026847839355</v>
+        <v>236.7901390075684</v>
       </c>
       <c r="I142">
-        <v>244.0670903523763</v>
+        <v>235.009646097819</v>
       </c>
       <c r="L142">
-        <v>39.25204490983919</v>
+        <v>72.90293314516998</v>
       </c>
       <c r="M142">
-        <v>38.97782738454076</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>65.00240675538178</v>
+      </c>
+      <c r="O142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>236.4104614257812</v>
+        <v>243.0818176269531</v>
       </c>
       <c r="C143">
-        <v>236.6025695800781</v>
+        <v>243.0968322753907</v>
       </c>
       <c r="D143">
-        <v>235.080078125</v>
+        <v>239.6854858398437</v>
       </c>
       <c r="E143">
-        <v>236.6025695800781</v>
+        <v>240.2869110107422</v>
       </c>
       <c r="F143">
-        <v>32448</v>
+        <v>4533920</v>
       </c>
       <c r="G143">
-        <v>240.0652851628669</v>
+        <v>237.8567298826099</v>
       </c>
       <c r="H143">
-        <v>239.3417282104492</v>
+        <v>237.3243598937988</v>
       </c>
       <c r="I143">
-        <v>243.417648824056</v>
+        <v>235.1998555501302</v>
       </c>
       <c r="L143">
-        <v>40.09010357782925</v>
+        <v>58.11590064667336</v>
       </c>
       <c r="M143">
-        <v>39.41223609961161</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>56.74559130362316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>236.6246032714844</v>
+        <v>240.2949829101562</v>
       </c>
       <c r="C144">
-        <v>238.2254791259766</v>
+        <v>240.5706329345703</v>
       </c>
       <c r="D144">
-        <v>236.3552703857422</v>
+        <v>239.5328979492188</v>
       </c>
       <c r="E144">
-        <v>237.7927551269531</v>
+        <v>239.8584594726562</v>
       </c>
       <c r="F144">
-        <v>2378224</v>
+        <v>4348000</v>
       </c>
       <c r="G144">
-        <v>239.8586915232384</v>
+        <v>238.0387052998869</v>
       </c>
       <c r="H144">
-        <v>238.9125137329102</v>
+        <v>237.7257400512695</v>
       </c>
       <c r="I144">
-        <v>243.0465850830078</v>
+        <v>235.4020044962565</v>
       </c>
       <c r="L144">
-        <v>45.61053999341347</v>
+        <v>56.15005114792964</v>
       </c>
       <c r="M144">
-        <v>42.30489926968615</v>
+        <v>55.57907529540888</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -5812,34 +5803,34 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>237.7869567871093</v>
+        <v>239.8642425537109</v>
       </c>
       <c r="C145">
-        <v>238.2056427001953</v>
+        <v>244.5027923583984</v>
       </c>
       <c r="D145">
-        <v>236.4807891845703</v>
+        <v>239.5433502197266</v>
       </c>
       <c r="E145">
-        <v>238.2056427001953</v>
+        <v>243.4602508544922</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>15399840</v>
       </c>
       <c r="G145">
-        <v>239.7084143575072</v>
+        <v>238.5315730775782</v>
       </c>
       <c r="H145">
-        <v>238.5301559448242</v>
+        <v>238.1587692260742</v>
       </c>
       <c r="I145">
-        <v>242.586203511556</v>
+        <v>235.6930531819661</v>
       </c>
       <c r="L145">
-        <v>47.49859830944467</v>
+        <v>66.77801821614256</v>
       </c>
       <c r="M145">
-        <v>43.31595615331897</v>
+        <v>62.54893831353937</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -5847,34 +5838,34 @@
         <v>158</v>
       </c>
       <c r="B146">
-        <v>238.1990203857422</v>
+        <v>243.4335479736328</v>
       </c>
       <c r="C146">
-        <v>239.7688751220703</v>
+        <v>244.5143432617188</v>
       </c>
       <c r="D146">
-        <v>238.1990203857422</v>
+        <v>243.4218444824219</v>
       </c>
       <c r="E146">
-        <v>238.884506225586</v>
+        <v>244.0209045410156</v>
       </c>
       <c r="F146">
-        <v>91680</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>239.6335136182416</v>
+        <v>239.030603210618</v>
       </c>
       <c r="H146">
-        <v>238.3582489013672</v>
+        <v>238.5381355285645</v>
       </c>
       <c r="I146">
-        <v>242.2015513102214</v>
+        <v>236.030105082194</v>
       </c>
       <c r="L146">
-        <v>50.66632230776005</v>
+        <v>68.13066008830079</v>
       </c>
       <c r="M146">
-        <v>45.02188855553592</v>
+        <v>63.50875035652348</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -5882,34 +5873,34 @@
         <v>159</v>
       </c>
       <c r="B147">
-        <v>238.9058074951172</v>
+        <v>244.0101776123047</v>
       </c>
       <c r="C147">
-        <v>241.7236633300781</v>
+        <v>244.4727630615234</v>
       </c>
       <c r="D147">
-        <v>238.8403625488281</v>
+        <v>243.6261749267578</v>
       </c>
       <c r="E147">
-        <v>241.1397094726562</v>
+        <v>243.7933197021484</v>
       </c>
       <c r="F147">
-        <v>4280448</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>239.7704405140975</v>
+        <v>239.4635774371208</v>
       </c>
       <c r="H147">
-        <v>238.2408706665039</v>
+        <v>238.9631652832031</v>
       </c>
       <c r="I147">
-        <v>241.8167592366536</v>
+        <v>236.3313649495443</v>
       </c>
       <c r="L147">
-        <v>59.74379588303926</v>
+        <v>66.8870042753929</v>
       </c>
       <c r="M147">
-        <v>50.36591845353198</v>
+        <v>62.80511059306421</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -5917,34 +5908,34 @@
         <v>160</v>
       </c>
       <c r="B148">
-        <v>241.1365356445312</v>
+        <v>243.7970275878907</v>
       </c>
       <c r="C148">
-        <v>241.1365356445312</v>
+        <v>244.4824523925781</v>
       </c>
       <c r="D148">
-        <v>238.4771423339844</v>
+        <v>242.3969573974609</v>
       </c>
       <c r="E148">
-        <v>240.2146453857422</v>
+        <v>244.1717681884766</v>
       </c>
       <c r="F148">
-        <v>2180960</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>239.8108227751561</v>
+        <v>239.8915947781531</v>
       </c>
       <c r="H148">
-        <v>238.0481964111328</v>
+        <v>239.393302154541</v>
       </c>
       <c r="I148">
-        <v>241.4508163452148</v>
+        <v>236.6416488647461</v>
       </c>
       <c r="L148">
-        <v>55.06796113853522</v>
+        <v>67.98042947311791</v>
       </c>
       <c r="M148">
-        <v>48.29230494938425</v>
+        <v>63.52873917567319</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -5952,34 +5943,34 @@
         <v>161</v>
       </c>
       <c r="B149">
-        <v>240.1770172119141</v>
+        <v>244.204345703125</v>
       </c>
       <c r="C149">
-        <v>240.2148284912109</v>
+        <v>245.4609985351562</v>
       </c>
       <c r="D149">
-        <v>239.3020935058593</v>
+        <v>242.5746154785156</v>
       </c>
       <c r="E149">
-        <v>239.3021850585937</v>
+        <v>242.7084655761719</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2748448</v>
       </c>
       <c r="G149">
-        <v>239.7645829827413</v>
+        <v>240.1476739416094</v>
       </c>
       <c r="H149">
-        <v>237.9033416748047</v>
+        <v>239.7101531982422</v>
       </c>
       <c r="I149">
-        <v>241.0115244547526</v>
+        <v>236.9779876708984</v>
       </c>
       <c r="L149">
-        <v>50.6675716007674</v>
+        <v>59.44224203884755</v>
       </c>
       <c r="M149">
-        <v>46.2687916397123</v>
+        <v>58.76788822902669</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -5987,34 +5978,34 @@
         <v>162</v>
       </c>
       <c r="B150">
-        <v>239.2988739013672</v>
+        <v>242.7027587890625</v>
       </c>
       <c r="C150">
-        <v>242.4431915283203</v>
+        <v>243.6641540527344</v>
       </c>
       <c r="D150">
-        <v>239.2960052490234</v>
+        <v>241.9244079589844</v>
       </c>
       <c r="E150">
-        <v>240.5709228515625</v>
+        <v>242.2483215332031</v>
       </c>
       <c r="F150">
-        <v>7131040</v>
+        <v>1540880</v>
       </c>
       <c r="G150">
-        <v>239.8378866071796</v>
+        <v>240.3386419044815</v>
       </c>
       <c r="H150">
-        <v>237.7497985839844</v>
+        <v>240.0475654602051</v>
       </c>
       <c r="I150">
-        <v>240.5771413167318</v>
+        <v>237.587836710612</v>
       </c>
       <c r="L150">
-        <v>56.14886863376536</v>
+        <v>56.91347366010803</v>
       </c>
       <c r="M150">
-        <v>49.4410513443547</v>
+        <v>57.31338481220522</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -6022,37 +6013,37 @@
         <v>163</v>
       </c>
       <c r="B151">
-        <v>240.54833984375</v>
+        <v>242.2481994628907</v>
       </c>
       <c r="C151">
-        <v>240.5892944335937</v>
+        <v>242.2954406738281</v>
       </c>
       <c r="D151">
-        <v>239.5495300292969</v>
+        <v>236.7013244628907</v>
       </c>
       <c r="E151">
-        <v>239.7961730957031</v>
+        <v>237.5164031982422</v>
       </c>
       <c r="F151">
-        <v>1182000</v>
+        <v>13602352</v>
       </c>
       <c r="G151">
-        <v>239.8340944697727</v>
+        <v>240.0820747493688</v>
       </c>
       <c r="H151">
-        <v>237.703604888916</v>
+        <v>240.1044731140137</v>
       </c>
       <c r="I151">
-        <v>240.1264297485351</v>
+        <v>237.9486348470052</v>
       </c>
       <c r="J151">
-        <v>250.992580871582</v>
+        <v>243.6702456665039</v>
       </c>
       <c r="L151">
-        <v>52.16698406298828</v>
+        <v>38.14156772063291</v>
       </c>
       <c r="M151">
-        <v>47.59322351885865</v>
+        <v>44.98356674032463</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -6060,37 +6051,37 @@
         <v>164</v>
       </c>
       <c r="B152">
-        <v>239.8046569824219</v>
+        <v>237.5242309570312</v>
       </c>
       <c r="C152">
-        <v>239.9340209960937</v>
+        <v>239.0800323486328</v>
       </c>
       <c r="D152">
-        <v>236.9126434326172</v>
+        <v>235.6180725097656</v>
       </c>
       <c r="E152">
-        <v>236.9126434326172</v>
+        <v>236.3341064453125</v>
       </c>
       <c r="F152">
-        <v>42656</v>
+        <v>972416</v>
       </c>
       <c r="G152">
-        <v>239.5685080118494</v>
+        <v>239.741350358091</v>
       </c>
       <c r="H152">
-        <v>237.4565132141113</v>
+        <v>240.0904754638672</v>
       </c>
       <c r="I152">
-        <v>239.64918162028</v>
+        <v>238.3400563557943</v>
       </c>
       <c r="J152">
-        <v>250.8060916339798</v>
+        <v>243.5730782596007</v>
       </c>
       <c r="L152">
-        <v>40.22324602379931</v>
+        <v>34.90542282941374</v>
       </c>
       <c r="M152">
-        <v>41.39249063348301</v>
+        <v>42.52212527289783</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -6098,37 +6089,37 @@
         <v>165</v>
       </c>
       <c r="B153">
-        <v>236.9600982666016</v>
+        <v>236.324447631836</v>
       </c>
       <c r="C153">
-        <v>237.908218383789</v>
+        <v>237.4407653808593</v>
       </c>
       <c r="D153">
-        <v>234.2367248535156</v>
+        <v>235.4862976074219</v>
       </c>
       <c r="E153">
-        <v>235.0067138671875</v>
+        <v>236.900405883789</v>
       </c>
       <c r="F153">
-        <v>6370512</v>
+        <v>2572144</v>
       </c>
       <c r="G153">
-        <v>239.1537994532438</v>
+        <v>239.483082678609</v>
       </c>
       <c r="H153">
-        <v>237.4165962219238</v>
+        <v>240.1666114807129</v>
       </c>
       <c r="I153">
-        <v>239.1553487141927</v>
+        <v>238.5833201090495</v>
       </c>
       <c r="J153">
-        <v>250.5968283523005</v>
+        <v>243.4846984930337</v>
       </c>
       <c r="L153">
-        <v>34.37158632085739</v>
+        <v>37.75139844084907</v>
       </c>
       <c r="M153">
-        <v>37.87955732882874</v>
+        <v>44.09992661358469</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -6136,37 +6127,37 @@
         <v>166</v>
       </c>
       <c r="B154">
-        <v>234.9821929931641</v>
+        <v>236.8870239257812</v>
       </c>
       <c r="C154">
-        <v>236.4215545654297</v>
+        <v>239.1676330566407</v>
       </c>
       <c r="D154">
-        <v>234.1744384765625</v>
+        <v>236.3425598144531</v>
       </c>
       <c r="E154">
-        <v>234.5806274414062</v>
+        <v>238.5917816162109</v>
       </c>
       <c r="F154">
-        <v>7184272</v>
+        <v>1060160</v>
       </c>
       <c r="G154">
-        <v>238.7380565430767</v>
+        <v>239.4020553093</v>
       </c>
       <c r="H154">
-        <v>237.2738983154297</v>
+        <v>240.2332557678223</v>
       </c>
       <c r="I154">
-        <v>238.7621348063151</v>
+        <v>238.8086842854818</v>
       </c>
       <c r="J154">
-        <v>250.3846932408979</v>
+        <v>243.4198916469831</v>
       </c>
       <c r="L154">
-        <v>33.15836932532017</v>
+        <v>45.72465026529191</v>
       </c>
       <c r="M154">
-        <v>37.12107678347898</v>
+        <v>48.63512704229166</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -6174,37 +6165,37 @@
         <v>167</v>
       </c>
       <c r="B155">
-        <v>234.577392578125</v>
+        <v>238.5868530273437</v>
       </c>
       <c r="C155">
-        <v>240.3723907470703</v>
+        <v>238.638900756836</v>
       </c>
       <c r="D155">
-        <v>231.201904296875</v>
+        <v>236.0455932617188</v>
       </c>
       <c r="E155">
-        <v>233.7939910888672</v>
+        <v>236.0798950195312</v>
       </c>
       <c r="F155">
-        <v>53161248</v>
+        <v>841024</v>
       </c>
       <c r="G155">
-        <v>238.2885960472395</v>
+        <v>239.1000407375029</v>
       </c>
       <c r="H155">
-        <v>237.2611618041992</v>
+        <v>240.1972076416016</v>
       </c>
       <c r="I155">
-        <v>238.3601745605469</v>
+        <v>238.8513585408529</v>
       </c>
       <c r="J155">
-        <v>250.1649488415333</v>
+        <v>243.3226731486062</v>
       </c>
       <c r="L155">
-        <v>30.89354028418198</v>
+        <v>37.66438678497317</v>
       </c>
       <c r="M155">
-        <v>35.69983880890336</v>
+        <v>43.0492165087748</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -6212,37 +6203,37 @@
         <v>168</v>
       </c>
       <c r="B156">
-        <v>233.7574920654297</v>
+        <v>236.0775299072266</v>
       </c>
       <c r="C156">
-        <v>235.289291381836</v>
+        <v>236.8213500976562</v>
       </c>
       <c r="D156">
-        <v>231.2117156982422</v>
+        <v>235.3360137939453</v>
       </c>
       <c r="E156">
-        <v>234.7287902832031</v>
+        <v>236.0319519042969</v>
       </c>
       <c r="F156">
-        <v>21802864</v>
+        <v>5550848</v>
       </c>
       <c r="G156">
-        <v>237.964977341418</v>
+        <v>238.8211235708478</v>
       </c>
       <c r="H156">
-        <v>237.1742324829102</v>
+        <v>240.186548614502</v>
       </c>
       <c r="I156">
-        <v>238.1070460001628</v>
+        <v>238.8379709879557</v>
       </c>
       <c r="J156">
-        <v>249.9604964102971</v>
+        <v>243.2261073043108</v>
       </c>
       <c r="L156">
-        <v>36.67593685620083</v>
+        <v>37.52236082102026</v>
       </c>
       <c r="M156">
-        <v>38.70323610146869</v>
+        <v>42.94782630082847</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -6250,37 +6241,37 @@
         <v>169</v>
       </c>
       <c r="B157">
-        <v>234.7555389404297</v>
+        <v>236.0335540771484</v>
       </c>
       <c r="C157">
-        <v>235.5213928222656</v>
+        <v>237.329116821289</v>
       </c>
       <c r="D157">
-        <v>231.69677734375</v>
+        <v>234.6900634765625</v>
       </c>
       <c r="E157">
-        <v>233.9093475341797</v>
+        <v>237.329116821289</v>
       </c>
       <c r="F157">
-        <v>20065424</v>
+        <v>1992704</v>
       </c>
       <c r="G157">
-        <v>237.5962837225781</v>
+        <v>238.6854865936152</v>
       </c>
       <c r="H157">
-        <v>237.0213104248047</v>
+        <v>240.3042556762695</v>
       </c>
       <c r="I157">
-        <v>237.7877817789714</v>
+        <v>238.9058507283529</v>
       </c>
       <c r="J157">
-        <v>249.747898411938</v>
+        <v>243.1480014700986</v>
       </c>
       <c r="L157">
-        <v>33.88024928711963</v>
+        <v>43.95507962918379</v>
       </c>
       <c r="M157">
-        <v>37.06870529047394</v>
+        <v>46.6116209561045</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -6288,37 +6279,37 @@
         <v>170</v>
       </c>
       <c r="B158">
-        <v>234.0412750244141</v>
+        <v>237.3953552246093</v>
       </c>
       <c r="C158">
-        <v>236.410659790039</v>
+        <v>240.83740234375</v>
       </c>
       <c r="D158">
-        <v>233.0652923583984</v>
+        <v>237.0443572998047</v>
       </c>
       <c r="E158">
-        <v>234.7555236816407</v>
+        <v>240.0140533447266</v>
       </c>
       <c r="F158">
-        <v>18807056</v>
+        <v>9063088</v>
       </c>
       <c r="G158">
-        <v>237.3380328097657</v>
+        <v>238.8062653891708</v>
       </c>
       <c r="H158">
-        <v>237.0517372131348</v>
+        <v>240.3150955200195</v>
       </c>
       <c r="I158">
-        <v>237.4773615519206</v>
+        <v>239.0540181477865</v>
       </c>
       <c r="J158">
-        <v>249.5493239121989</v>
+        <v>243.1064922234049</v>
       </c>
       <c r="L158">
-        <v>39.25902986334404</v>
+        <v>54.79342352137952</v>
       </c>
       <c r="M158">
-        <v>39.89168174023838</v>
+        <v>53.29701594070598</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -6326,37 +6317,37 @@
         <v>171</v>
       </c>
       <c r="B159">
-        <v>235.0138702392578</v>
+        <v>240.0011749267578</v>
       </c>
       <c r="C159">
-        <v>237.4127197265625</v>
+        <v>241.7879028320312</v>
       </c>
       <c r="D159">
-        <v>234.6156158447266</v>
+        <v>239.8878326416016</v>
       </c>
       <c r="E159">
-        <v>234.8632507324219</v>
+        <v>241.3240051269531</v>
       </c>
       <c r="F159">
-        <v>5854400</v>
+        <v>1125488</v>
       </c>
       <c r="G159">
-        <v>237.1130526209162</v>
+        <v>239.0351508198782</v>
       </c>
       <c r="H159">
-        <v>237.0136283874512</v>
+        <v>240.3803535461426</v>
       </c>
       <c r="I159">
-        <v>237.2328272501628</v>
+        <v>239.2191034952799</v>
       </c>
       <c r="J159">
-        <v>249.354806386639</v>
+        <v>243.0828831227897</v>
       </c>
       <c r="L159">
-        <v>39.95858197975497</v>
+        <v>59.13142752359878</v>
       </c>
       <c r="M159">
-        <v>40.2591002424298</v>
+        <v>56.18010239224525</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -6364,654 +6355,645 @@
         <v>172</v>
       </c>
       <c r="B160">
-        <v>234.8524627685547</v>
+        <v>241.2978515625</v>
       </c>
       <c r="C160">
-        <v>235.6635589599609</v>
+        <v>243.4019012451172</v>
       </c>
       <c r="D160">
-        <v>232.4159851074219</v>
+        <v>240.3652801513672</v>
       </c>
       <c r="E160">
-        <v>232.6183013916016</v>
+        <v>241.8800659179688</v>
       </c>
       <c r="F160">
-        <v>3844464</v>
+        <v>5906064</v>
       </c>
       <c r="G160">
-        <v>236.7044388727967</v>
+        <v>239.2937794651592</v>
       </c>
       <c r="H160">
-        <v>236.8249572753906</v>
+        <v>240.3811164855957</v>
       </c>
       <c r="I160">
-        <v>236.8653778076172</v>
+        <v>239.4317698160807</v>
       </c>
       <c r="J160">
-        <v>249.1331308237908</v>
+        <v>243.0669517690834</v>
       </c>
       <c r="L160">
-        <v>31.463313546135</v>
+        <v>60.92219018278244</v>
       </c>
       <c r="M160">
-        <v>35.40255430548703</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>57.3827815423015</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>232.641128540039</v>
+        <v>241.852554321289</v>
       </c>
       <c r="C161">
-        <v>233.5256805419922</v>
+        <v>241.9893188476562</v>
       </c>
       <c r="D161">
-        <v>223.7470245361328</v>
+        <v>240.61181640625</v>
       </c>
       <c r="E161">
-        <v>223.9528503417969</v>
+        <v>241.5585174560547</v>
       </c>
       <c r="F161">
-        <v>12360736</v>
+        <v>699456</v>
       </c>
       <c r="G161">
-        <v>235.5452035517967</v>
+        <v>239.4996647370588</v>
       </c>
       <c r="H161">
-        <v>236.2025863647461</v>
+        <v>240.3594047546387</v>
       </c>
       <c r="I161">
-        <v>236.3064712524414</v>
+        <v>239.6044453938802</v>
       </c>
       <c r="J161">
-        <v>248.7996171750227</v>
+        <v>243.0469725066592</v>
       </c>
       <c r="L161">
-        <v>16.35972424091386</v>
+        <v>59.23371674947069</v>
       </c>
       <c r="M161">
-        <v>23.57881722615006</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>56.41848918990993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>224.0044403076172</v>
+        <v>241.551513671875</v>
       </c>
       <c r="C162">
-        <v>227.586181640625</v>
+        <v>243.3176574707031</v>
       </c>
       <c r="D162">
-        <v>219.3202362060547</v>
+        <v>241.1751861572266</v>
       </c>
       <c r="E162">
-        <v>226.6924591064453</v>
+        <v>242.6846923828125</v>
       </c>
       <c r="F162">
-        <v>7704320</v>
+        <v>4694544</v>
       </c>
       <c r="G162">
-        <v>234.7404086022193</v>
+        <v>239.7892127048545</v>
       </c>
       <c r="H162">
-        <v>235.7161804199219</v>
+        <v>240.3396697998047</v>
       </c>
       <c r="I162">
-        <v>235.8010706583659</v>
+        <v>239.8067998250326</v>
       </c>
       <c r="J162">
-        <v>248.5068071343793</v>
+        <v>243.0421740944229</v>
       </c>
       <c r="L162">
-        <v>28.55753848130076</v>
+        <v>63.24719700045796</v>
       </c>
       <c r="M162">
-        <v>31.3814918181367</v>
-      </c>
-      <c r="N162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>59.01615865135791</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>226.7594757080078</v>
+        <v>242.7081298828125</v>
       </c>
       <c r="C163">
-        <v>228.2986450195312</v>
+        <v>243.4985656738281</v>
       </c>
       <c r="D163">
-        <v>224.2872161865234</v>
+        <v>239.430191040039</v>
       </c>
       <c r="E163">
-        <v>224.5914611816407</v>
+        <v>241.5039978027344</v>
       </c>
       <c r="F163">
-        <v>1206080</v>
+        <v>5149328</v>
       </c>
       <c r="G163">
-        <v>233.8177770185303</v>
+        <v>239.9451022592073</v>
       </c>
       <c r="H163">
-        <v>235.115625</v>
+        <v>240.4005241394043</v>
       </c>
       <c r="I163">
-        <v>235.4272842407227</v>
+        <v>240.0110102335612</v>
       </c>
       <c r="J163">
-        <v>248.1900475853364</v>
+        <v>243.0218008985065</v>
       </c>
       <c r="L163">
-        <v>25.36594738090594</v>
+        <v>56.66706005365877</v>
       </c>
       <c r="M163">
-        <v>28.94106386073457</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>55.29495438341203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>224.5603179931641</v>
+        <v>241.5359497070312</v>
       </c>
       <c r="C164">
-        <v>230.330810546875</v>
+        <v>243.5845336914062</v>
       </c>
       <c r="D164">
-        <v>223.7773132324219</v>
+        <v>241.0101013183593</v>
       </c>
       <c r="E164">
-        <v>229.6024932861328</v>
+        <v>241.7197723388672</v>
       </c>
       <c r="F164">
-        <v>4103424</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>233.4345694064942</v>
+        <v>240.1064359028127</v>
       </c>
       <c r="H164">
-        <v>234.706111907959</v>
+        <v>240.4935897827148</v>
       </c>
       <c r="I164">
-        <v>235.1662144978841</v>
+        <v>240.1597061157227</v>
       </c>
       <c r="J164">
-        <v>247.9438548131616</v>
+        <v>243.0045554871206</v>
       </c>
       <c r="L164">
-        <v>42.58367857811911</v>
+        <v>57.57453655654222</v>
       </c>
       <c r="M164">
-        <v>40.77169594470531</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>55.84292861948215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>229.5428314208984</v>
+        <v>241.7346496582031</v>
       </c>
       <c r="C165">
-        <v>234.9158325195312</v>
+        <v>241.9618988037109</v>
       </c>
       <c r="D165">
-        <v>228.564193725586</v>
+        <v>236.8670501708984</v>
       </c>
       <c r="E165">
-        <v>231.8308563232422</v>
+        <v>237.3387451171875</v>
       </c>
       <c r="F165">
-        <v>14874592</v>
+        <v>3470048</v>
       </c>
       <c r="G165">
-        <v>233.2887773080167</v>
+        <v>239.854827649574</v>
       </c>
       <c r="H165">
-        <v>234.3873725891113</v>
+        <v>240.1875144958496</v>
       </c>
       <c r="I165">
-        <v>235.0922856648763</v>
+        <v>240.1776357014974</v>
       </c>
       <c r="J165">
-        <v>247.7304376146196</v>
+        <v>242.9295116411612</v>
       </c>
       <c r="L165">
-        <v>48.52455222091488</v>
+        <v>38.94514005245628</v>
       </c>
       <c r="M165">
-        <v>45.14536596391029</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>44.03953766944012</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>231.8241271972656</v>
+        <v>237.3945617675781</v>
       </c>
       <c r="C166">
-        <v>234.7996673583984</v>
+        <v>237.7553253173828</v>
       </c>
       <c r="D166">
-        <v>231.6307373046875</v>
+        <v>235.705795288086</v>
       </c>
       <c r="E166">
-        <v>234.7996673583984</v>
+        <v>236.8209228515625</v>
       </c>
       <c r="F166">
-        <v>4815328</v>
+        <v>3319264</v>
       </c>
       <c r="G166">
-        <v>233.4261309489605</v>
+        <v>239.5790181224821</v>
       </c>
       <c r="H166">
-        <v>234.183130645752</v>
+        <v>239.827515411377</v>
       </c>
       <c r="I166">
-        <v>235.0366953531901</v>
+        <v>240.1968287150065</v>
       </c>
       <c r="J166">
-        <v>247.5591691344048</v>
+        <v>242.8486031803718</v>
       </c>
       <c r="L166">
-        <v>55.43571367693447</v>
+        <v>37.33862801957294</v>
       </c>
       <c r="M166">
-        <v>50.40040711506847</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>42.88571074240484</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>234.7974395751953</v>
+        <v>236.8275604248047</v>
       </c>
       <c r="C167">
-        <v>237.9470672607422</v>
+        <v>237.1291046142578</v>
       </c>
       <c r="D167">
-        <v>234.5218811035156</v>
+        <v>236.2962799072266</v>
       </c>
       <c r="E167">
-        <v>236.4335784912109</v>
+        <v>236.8151245117188</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>2614816</v>
       </c>
       <c r="G167">
-        <v>233.6995352709833</v>
+        <v>239.3277550669581</v>
       </c>
       <c r="H167">
-        <v>233.9478240966797</v>
+        <v>239.4786056518555</v>
       </c>
       <c r="I167">
-        <v>235.0188883463542</v>
+        <v>240.2581670125325</v>
       </c>
       <c r="J167">
-        <v>247.4118103179386</v>
+        <v>242.7686895556214</v>
       </c>
       <c r="L167">
-        <v>58.85595166231546</v>
+        <v>37.31923529109901</v>
       </c>
       <c r="M167">
-        <v>53.0653444072822</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>42.8721656812532</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>236.4449920654297</v>
+        <v>236.8052978515625</v>
       </c>
       <c r="C168">
-        <v>237.1786651611328</v>
+        <v>236.8206176757812</v>
       </c>
       <c r="D168">
-        <v>234.4195861816407</v>
+        <v>233.2573547363281</v>
       </c>
       <c r="E168">
-        <v>235.292724609375</v>
+        <v>235.4875183105469</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>11586928</v>
       </c>
       <c r="G168">
-        <v>233.8443706653825</v>
+        <v>238.9786426345571</v>
       </c>
       <c r="H168">
-        <v>233.7017280578613</v>
+        <v>239.044393157959</v>
       </c>
       <c r="I168">
-        <v>235.0570795694987</v>
+        <v>240.1145090738932</v>
       </c>
       <c r="J168">
-        <v>247.2512926264345</v>
+        <v>242.6722502013821</v>
       </c>
       <c r="L168">
-        <v>55.50945461987178</v>
+        <v>32.91569728468834</v>
       </c>
       <c r="M168">
-        <v>51.00468950556293</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>39.77457389854249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>235.3141784667969</v>
+        <v>235.4325866699219</v>
       </c>
       <c r="C169">
-        <v>236.8769836425781</v>
+        <v>237.4493713378907</v>
       </c>
       <c r="D169">
-        <v>234.8450012207031</v>
+        <v>234.2061920166016</v>
       </c>
       <c r="E169">
-        <v>235.5690307617188</v>
+        <v>237.146728515625</v>
       </c>
       <c r="F169">
-        <v>115808</v>
+        <v>7449040</v>
       </c>
       <c r="G169">
-        <v>234.0011579468677</v>
+        <v>238.8121049873815</v>
       </c>
       <c r="H169">
-        <v>233.5150703430176</v>
+        <v>238.7663063049316</v>
       </c>
       <c r="I169">
-        <v>235.0551996866862</v>
+        <v>240.018771870931</v>
       </c>
       <c r="J169">
-        <v>247.0965606812065</v>
+        <v>242.5990644836899</v>
       </c>
       <c r="L169">
-        <v>56.18819587884823</v>
+        <v>42.4614953761241</v>
       </c>
       <c r="M169">
-        <v>51.49595633296134</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>45.11212448166014</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>235.6334228515625</v>
+        <v>237.1482391357422</v>
       </c>
       <c r="C170">
-        <v>236.6427001953125</v>
+        <v>238.8311004638672</v>
       </c>
       <c r="D170">
-        <v>234.9675903320312</v>
+        <v>236.923828125</v>
       </c>
       <c r="E170">
-        <v>236.3714447021484</v>
+        <v>237.696792602539</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>453584</v>
       </c>
       <c r="G170">
-        <v>234.2166385609841</v>
+        <v>238.7107129523958</v>
       </c>
       <c r="H170">
-        <v>233.3050964355469</v>
+        <v>238.5387298583984</v>
       </c>
       <c r="I170">
-        <v>235.0545237223307</v>
+        <v>239.8798380533854</v>
       </c>
       <c r="J170">
-        <v>246.9545061649276</v>
+        <v>242.5341337302972</v>
       </c>
       <c r="L170">
-        <v>58.26819942721705</v>
+        <v>45.36121983987809</v>
       </c>
       <c r="M170">
-        <v>52.97072467193744</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>46.79559786441626</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>236.3611755371093</v>
+        <v>237.6836700439453</v>
       </c>
       <c r="C171">
-        <v>237.0585784912109</v>
+        <v>237.6836700439453</v>
       </c>
       <c r="D171">
-        <v>234.8176422119141</v>
+        <v>232.9396209716797</v>
       </c>
       <c r="E171">
-        <v>235.5000762939453</v>
+        <v>234.2635192871093</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>13354992</v>
       </c>
       <c r="G171">
-        <v>234.333314718526</v>
+        <v>238.3064226191879</v>
       </c>
       <c r="H171">
-        <v>233.090291595459</v>
+        <v>238.3760856628418</v>
       </c>
       <c r="I171">
-        <v>235.0245173136393</v>
+        <v>239.6221969604492</v>
       </c>
       <c r="J171">
-        <v>246.8027918620006</v>
+        <v>242.4245891681358</v>
       </c>
       <c r="L171">
-        <v>55.07390685250228</v>
+        <v>33.5048154980483</v>
       </c>
       <c r="M171">
-        <v>51.15188050273382</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>38.79709337298396</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>235.4984130859375</v>
+        <v>234.2493591308593</v>
       </c>
       <c r="C172">
-        <v>236.6905517578125</v>
+        <v>234.5364532470703</v>
       </c>
       <c r="D172">
-        <v>234.7041473388672</v>
+        <v>230.6651763916016</v>
       </c>
       <c r="E172">
-        <v>236.3782501220703</v>
+        <v>233.1337738037109</v>
       </c>
       <c r="F172">
-        <v>12056768</v>
+        <v>6049216</v>
       </c>
       <c r="G172">
-        <v>234.51921793703</v>
+        <v>237.8361818177809</v>
       </c>
       <c r="H172">
-        <v>233.0635719299316</v>
+        <v>238.2160690307617</v>
       </c>
       <c r="I172">
-        <v>235.0231063842774</v>
+        <v>239.2906763712565</v>
       </c>
       <c r="J172">
-        <v>246.6647184614718</v>
+        <v>242.3015320109911</v>
       </c>
       <c r="L172">
-        <v>57.70287397636292</v>
+        <v>30.54892111671797</v>
       </c>
       <c r="M172">
-        <v>52.90689327857832</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>36.58134527861817</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>236.384506225586</v>
+        <v>233.1328582763672</v>
       </c>
       <c r="C173">
-        <v>237.1844177246093</v>
+        <v>233.5761413574219</v>
       </c>
       <c r="D173">
-        <v>235.6177978515625</v>
+        <v>232.3293762207031</v>
       </c>
       <c r="E173">
-        <v>236.6140594482422</v>
+        <v>233.2052459716797</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>3040416</v>
       </c>
       <c r="G173">
-        <v>234.7096580744129</v>
+        <v>237.4151876499535</v>
       </c>
       <c r="H173">
-        <v>233.1439392089844</v>
+        <v>238.0313110351562</v>
       </c>
       <c r="I173">
-        <v>235.0234893798828</v>
+        <v>239.0546208699544</v>
       </c>
       <c r="J173">
-        <v>246.5315971500383</v>
+        <v>242.1810514011989</v>
       </c>
       <c r="L173">
-        <v>58.43759120091797</v>
+        <v>30.98228342165226</v>
       </c>
       <c r="M173">
-        <v>53.39113933283474</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>36.82715139232625</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>236.6061706542969</v>
+        <v>233.1805725097656</v>
       </c>
       <c r="C174">
-        <v>237.9268188476562</v>
+        <v>235.3986511230469</v>
       </c>
       <c r="D174">
-        <v>234.9653015136719</v>
+        <v>232.9949645996093</v>
       </c>
       <c r="E174">
-        <v>235.377685546875</v>
+        <v>234.7220611572266</v>
       </c>
       <c r="F174">
-        <v>6975152</v>
+        <v>5337200</v>
       </c>
       <c r="G174">
-        <v>234.7703878446368</v>
+        <v>237.1703579687965</v>
       </c>
       <c r="H174">
-        <v>233.1837921142578</v>
+        <v>237.837825012207</v>
       </c>
       <c r="I174">
-        <v>234.9429870605469</v>
+        <v>238.8834075927734</v>
       </c>
       <c r="J174">
-        <v>246.3838632215196</v>
+        <v>242.0822568284311</v>
       </c>
       <c r="L174">
-        <v>53.00658201677108</v>
+        <v>39.93117967952108</v>
       </c>
       <c r="M174">
-        <v>50.46131967810766</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>41.96787793523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>235.3549194335937</v>
+        <v>234.73583984375</v>
       </c>
       <c r="C175">
-        <v>237.8931884765625</v>
+        <v>236.7123413085937</v>
       </c>
       <c r="D175">
-        <v>234.7816162109375</v>
+        <v>234.5533599853516</v>
       </c>
       <c r="E175">
-        <v>237.2588958740234</v>
+        <v>235.88134765625</v>
       </c>
       <c r="F175">
-        <v>3415136</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>234.9966158473082</v>
+        <v>237.0531752131105</v>
       </c>
       <c r="H175">
-        <v>233.3570373535156</v>
+        <v>237.827897644043</v>
       </c>
       <c r="I175">
-        <v>234.9114288330078</v>
+        <v>238.6307774861654</v>
       </c>
       <c r="J175">
-        <v>246.2630027268508</v>
+        <v>242.0001255811174</v>
       </c>
       <c r="L175">
-        <v>59.45644008637416</v>
+        <v>45.95628589248109</v>
       </c>
       <c r="M175">
-        <v>54.54822654966708</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>45.61079706055621</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>237.2872619628907</v>
+        <v>235.8372497558593</v>
       </c>
       <c r="C176">
-        <v>237.8985443115234</v>
+        <v>236.7940979003907</v>
       </c>
       <c r="D176">
-        <v>236.6898651123047</v>
+        <v>234.6792755126953</v>
       </c>
       <c r="E176">
-        <v>236.8008575439453</v>
+        <v>236.6443634033203</v>
       </c>
       <c r="F176">
-        <v>1977696</v>
+        <v>1699952</v>
       </c>
       <c r="G176">
-        <v>235.1606378197298</v>
+        <v>237.0160105031296</v>
       </c>
       <c r="H176">
-        <v>233.4606407165527</v>
+        <v>237.8585182189941</v>
       </c>
       <c r="I176">
-        <v>234.8419738769531</v>
+        <v>238.3848927815755</v>
       </c>
       <c r="J176">
-        <v>246.1376763005872</v>
+        <v>241.9291883337294</v>
       </c>
       <c r="L176">
-        <v>57.30216506226591</v>
+        <v>49.69259473366379</v>
       </c>
       <c r="M176">
-        <v>53.39321706862028</v>
+        <v>47.92773781881588</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7019,37 +7001,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>236.7595977783203</v>
+        <v>236.6390380859375</v>
       </c>
       <c r="C177">
-        <v>237.2588348388672</v>
+        <v>237.1707153320312</v>
       </c>
       <c r="D177">
-        <v>234.9506072998047</v>
+        <v>236.3236999511719</v>
       </c>
       <c r="E177">
-        <v>236.245132446289</v>
+        <v>236.581558227539</v>
       </c>
       <c r="F177">
-        <v>3164432</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>235.2592282403261</v>
+        <v>236.9765148417122</v>
       </c>
       <c r="H177">
-        <v>233.5774299621582</v>
+        <v>237.8211402893066</v>
       </c>
       <c r="I177">
-        <v>234.6788213094075</v>
+        <v>238.1445007324219</v>
       </c>
       <c r="J177">
-        <v>246.0066492296693</v>
+        <v>241.8583587958991</v>
       </c>
       <c r="L177">
-        <v>54.60181520311477</v>
+        <v>49.37648909494497</v>
       </c>
       <c r="M177">
-        <v>51.95580314340975</v>
+        <v>47.74743649612055</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7057,37 +7039,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>236.2452087402344</v>
+        <v>236.6177520751953</v>
       </c>
       <c r="C178">
-        <v>236.298843383789</v>
+        <v>237.769760131836</v>
       </c>
       <c r="D178">
-        <v>234.6746673583984</v>
+        <v>236.5841522216797</v>
       </c>
       <c r="E178">
-        <v>234.9749755859375</v>
+        <v>236.7393798828125</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>179568</v>
       </c>
       <c r="G178">
-        <v>235.2333870899271</v>
+        <v>236.9549571181759</v>
       </c>
       <c r="H178">
-        <v>233.5884025573731</v>
+        <v>237.6574066162109</v>
       </c>
       <c r="I178">
-        <v>234.5041656494141</v>
+        <v>237.8967544555664</v>
       </c>
       <c r="J178">
-        <v>245.8605343469709</v>
+        <v>241.7905577506926</v>
       </c>
       <c r="L178">
-        <v>48.70070019037298</v>
+        <v>50.27077409951293</v>
       </c>
       <c r="M178">
-        <v>48.72695888856619</v>
+        <v>48.27403116447474</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7095,37 +7077,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>234.9593658447266</v>
+        <v>236.7407684326172</v>
       </c>
       <c r="C179">
-        <v>240.4254150390625</v>
+        <v>237.6676025390625</v>
       </c>
       <c r="D179">
-        <v>234.9593658447266</v>
+        <v>236.1172943115234</v>
       </c>
       <c r="E179">
-        <v>239.7972564697266</v>
+        <v>237.5483245849609</v>
       </c>
       <c r="F179">
-        <v>9087776</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>235.6482843062725</v>
+        <v>237.0088996151563</v>
       </c>
       <c r="H179">
-        <v>233.8351028442383</v>
+        <v>237.4686225891113</v>
       </c>
       <c r="I179">
-        <v>234.5206680297852</v>
+        <v>237.7247497558594</v>
       </c>
       <c r="J179">
-        <v>245.780226030716</v>
+        <v>241.7343692319412</v>
       </c>
       <c r="L179">
-        <v>64.90218316793164</v>
+        <v>54.86816509847633</v>
       </c>
       <c r="M179">
-        <v>59.11544260336736</v>
+        <v>50.99988687329024</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7133,37 +7115,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>239.7962646484375</v>
+        <v>237.54443359375</v>
       </c>
       <c r="C180">
-        <v>240.7271881103516</v>
+        <v>237.54443359375</v>
       </c>
       <c r="D180">
-        <v>239.1880340576172</v>
+        <v>236.90625</v>
       </c>
       <c r="E180">
-        <v>240.0188446044922</v>
+        <v>237.093765258789</v>
       </c>
       <c r="F180">
-        <v>1176240</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>236.045607969747</v>
+        <v>237.0166146736684</v>
       </c>
       <c r="H180">
-        <v>234.2051300048828</v>
+        <v>237.2293075561523</v>
       </c>
       <c r="I180">
-        <v>234.5022654215495</v>
+        <v>237.5529312133789</v>
       </c>
       <c r="J180">
-        <v>245.7039163429514</v>
+        <v>241.6729042786545</v>
       </c>
       <c r="L180">
-        <v>65.46599833954231</v>
+        <v>51.83861992133642</v>
       </c>
       <c r="M180">
-        <v>59.52129524365298</v>
+        <v>49.4237766768489</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7171,37 +7153,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>240.0185241699219</v>
+        <v>237.0962677001953</v>
       </c>
       <c r="C181">
-        <v>242.7001953125</v>
+        <v>237.097412109375</v>
       </c>
       <c r="D181">
-        <v>239.9956359863281</v>
+        <v>234.5789489746093</v>
       </c>
       <c r="E181">
-        <v>241.8648071289062</v>
+        <v>236.7239227294922</v>
       </c>
       <c r="F181">
-        <v>4564416</v>
+        <v>2645200</v>
       </c>
       <c r="G181">
-        <v>236.5746260751251</v>
+        <v>236.9900063151069</v>
       </c>
       <c r="H181">
-        <v>235.1007278442383</v>
+        <v>236.9875778198242</v>
       </c>
       <c r="I181">
-        <v>234.5712198893229</v>
+        <v>237.5265151977539</v>
       </c>
       <c r="J181">
-        <v>245.6530672142886</v>
+        <v>241.6073548541623</v>
       </c>
       <c r="L181">
-        <v>69.98483180960822</v>
+        <v>49.34473386094014</v>
       </c>
       <c r="M181">
-        <v>62.831432203913</v>
+        <v>48.12072836045346</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7209,37 +7191,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>241.8712768554688</v>
+        <v>236.7400360107422</v>
       </c>
       <c r="C182">
-        <v>242.2272644042969</v>
+        <v>237.2907867431641</v>
       </c>
       <c r="D182">
-        <v>240.4837493896484</v>
+        <v>236.7400360107422</v>
       </c>
       <c r="E182">
-        <v>240.7476501464844</v>
+        <v>236.9251098632812</v>
       </c>
       <c r="F182">
-        <v>1931008</v>
+        <v>1425728</v>
       </c>
       <c r="G182">
-        <v>236.9539918997941</v>
+        <v>236.9841066376682</v>
       </c>
       <c r="H182">
-        <v>235.8034873962402</v>
+        <v>236.6995986938477</v>
       </c>
       <c r="I182">
-        <v>234.6990534464518</v>
+        <v>237.5462153116862</v>
       </c>
       <c r="J182">
-        <v>245.5880948027945</v>
+        <v>241.5453383642168</v>
       </c>
       <c r="L182">
-        <v>64.25998466238261</v>
+        <v>50.79344569186406</v>
       </c>
       <c r="M182">
-        <v>59.65220291864001</v>
+        <v>48.90982468436307</v>
       </c>
     </row>
   </sheetData>
